--- a/April 2018/Miscellaneous/Contract_vs_Market-Contract Results.xlsx
+++ b/April 2018/Miscellaneous/Contract_vs_Market-Contract Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mooz\Documents\GitHub\GCD_BugFlowExperiment\April 2018\Market-Contract Price Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mooz\Documents\GitHub\GCD_BugFlowExperiment\April 2018\Miscellaneous\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="36">
   <si>
     <t>case1</t>
   </si>
@@ -74,12 +74,6 @@
     <t>V3</t>
   </si>
   <si>
-    <t>V4</t>
-  </si>
-  <si>
-    <t>V5</t>
-  </si>
-  <si>
     <t>H2</t>
   </si>
   <si>
@@ -93,15 +87,6 @@
   </si>
   <si>
     <t>H1000 (weekend=off-peak weekday +1000)</t>
-  </si>
-  <si>
-    <t>0.7 MAF</t>
-  </si>
-  <si>
-    <t>0.8 MAF</t>
-  </si>
-  <si>
-    <t>0.9 MAF</t>
   </si>
   <si>
     <t>Case</t>
@@ -119,22 +104,13 @@
     <t>Saturday Model</t>
   </si>
   <si>
-    <t>Difference between Saturday and Weekday models</t>
-  </si>
-  <si>
     <t>H1000 (weekend=off-peak weekday+1000)</t>
   </si>
   <si>
     <t>Saturday-Sunday-Weekday model</t>
   </si>
   <si>
-    <t>Paste the Saturday-Sunday-Weekday model results here from the .gdx file. The graph is controlled by these values</t>
-  </si>
-  <si>
     <t>Market-Contract prices model</t>
-  </si>
-  <si>
-    <t>Paste the pricing model results here from the .gdx file. The graph is controlled by these values</t>
   </si>
   <si>
     <t>z</t>
@@ -147,6 +123,15 @@
   </si>
   <si>
     <t>0.94 MAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The graph is controlled by these values</t>
+  </si>
+  <si>
+    <t>Paste the pricing model results here from the .gdx file.</t>
+  </si>
+  <si>
+    <t>Paste the Saturday-Sunday-Weekday model results here from the .gdx file.</t>
   </si>
 </sst>
 </file>
@@ -316,11 +301,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -331,11 +315,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -355,25 +357,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2470,2289 +2461,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>339290</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>108858</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>394722</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>171056</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90C97E4D-5099-4555-91B2-C63F69F109F3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="17484290" y="6340929"/>
-          <a:ext cx="1280075" cy="1967198"/>
-          <a:chOff x="16744061" y="7032172"/>
-          <a:chExt cx="1339947" cy="1912770"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="3" name="Group 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF613AFC-AE43-4767-817E-77C915877940}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="16744061" y="7032172"/>
-            <a:ext cx="1339947" cy="1912770"/>
-            <a:chOff x="16744061" y="7032172"/>
-            <a:chExt cx="1339947" cy="1912770"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="5" name="Group 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C666DEA-0CA1-4CAE-9E94-02274D446C79}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="16744061" y="7032172"/>
-              <a:ext cx="1339947" cy="1912770"/>
-              <a:chOff x="1" y="0"/>
-              <a:chExt cx="1340009" cy="1914034"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:grpSp>
-            <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="9" name="Group 8">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29143662-6541-4BA7-A5EA-5C0D14FB8DE0}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvGrpSpPr/>
-            </xdr:nvGrpSpPr>
-            <xdr:grpSpPr>
-              <a:xfrm>
-                <a:off x="1" y="0"/>
-                <a:ext cx="1340009" cy="1914034"/>
-                <a:chOff x="1" y="0"/>
-                <a:chExt cx="1340009" cy="1914034"/>
-              </a:xfrm>
-            </xdr:grpSpPr>
-            <xdr:grpSp>
-              <xdr:nvGrpSpPr>
-                <xdr:cNvPr id="11" name="Group 10">
-                  <a:extLst>
-                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24771F92-AB06-47CA-8B6F-3E7727234734}"/>
-                    </a:ext>
-                  </a:extLst>
-                </xdr:cNvPr>
-                <xdr:cNvGrpSpPr/>
-              </xdr:nvGrpSpPr>
-              <xdr:grpSpPr>
-                <a:xfrm>
-                  <a:off x="1" y="0"/>
-                  <a:ext cx="1340009" cy="1914034"/>
-                  <a:chOff x="0" y="0"/>
-                  <a:chExt cx="1324672" cy="1840183"/>
-                </a:xfrm>
-              </xdr:grpSpPr>
-              <xdr:sp macro="" textlink="">
-                <xdr:nvSpPr>
-                  <xdr:cNvPr id="13" name="Oval 12">
-                    <a:extLst>
-                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2A529C4-B7AC-4F31-913E-EF4264C7FEEB}"/>
-                      </a:ext>
-                    </a:extLst>
-                  </xdr:cNvPr>
-                  <xdr:cNvSpPr/>
-                </xdr:nvSpPr>
-                <xdr:spPr>
-                  <a:xfrm>
-                    <a:off x="137123" y="1686513"/>
-                    <a:ext cx="130141" cy="140760"/>
-                  </a:xfrm>
-                  <a:prstGeom prst="ellipse">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </xdr:spPr>
-                <xdr:style>
-                  <a:lnRef idx="2">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="50000"/>
-                    </a:schemeClr>
-                  </a:lnRef>
-                  <a:fillRef idx="1">
-                    <a:schemeClr val="accent1"/>
-                  </a:fillRef>
-                  <a:effectRef idx="0">
-                    <a:schemeClr val="accent1"/>
-                  </a:effectRef>
-                  <a:fontRef idx="minor">
-                    <a:schemeClr val="lt1"/>
-                  </a:fontRef>
-                </xdr:style>
-                <xdr:txBody>
-                  <a:bodyPr wrap="square"/>
-                  <a:lstStyle>
-                    <a:lvl1pPr marL="0" indent="0">
-                      <a:defRPr sz="1100">
-                        <a:solidFill>
-                          <a:schemeClr val="lt1"/>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:lvl1pPr>
-                    <a:lvl2pPr marL="457200" indent="0">
-                      <a:defRPr sz="1100">
-                        <a:solidFill>
-                          <a:schemeClr val="lt1"/>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:lvl2pPr>
-                    <a:lvl3pPr marL="914400" indent="0">
-                      <a:defRPr sz="1100">
-                        <a:solidFill>
-                          <a:schemeClr val="lt1"/>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:lvl3pPr>
-                    <a:lvl4pPr marL="1371600" indent="0">
-                      <a:defRPr sz="1100">
-                        <a:solidFill>
-                          <a:schemeClr val="lt1"/>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:lvl4pPr>
-                    <a:lvl5pPr marL="1828800" indent="0">
-                      <a:defRPr sz="1100">
-                        <a:solidFill>
-                          <a:schemeClr val="lt1"/>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:lvl5pPr>
-                    <a:lvl6pPr marL="2286000" indent="0">
-                      <a:defRPr sz="1100">
-                        <a:solidFill>
-                          <a:schemeClr val="lt1"/>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:lvl6pPr>
-                    <a:lvl7pPr marL="2743200" indent="0">
-                      <a:defRPr sz="1100">
-                        <a:solidFill>
-                          <a:schemeClr val="lt1"/>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:lvl7pPr>
-                    <a:lvl8pPr marL="3200400" indent="0">
-                      <a:defRPr sz="1100">
-                        <a:solidFill>
-                          <a:schemeClr val="lt1"/>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:lvl8pPr>
-                    <a:lvl9pPr marL="3657600" indent="0">
-                      <a:defRPr sz="1100">
-                        <a:solidFill>
-                          <a:schemeClr val="lt1"/>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:lvl9pPr>
-                  </a:lstStyle>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </xdr:txBody>
-              </xdr:sp>
-              <xdr:grpSp>
-                <xdr:nvGrpSpPr>
-                  <xdr:cNvPr id="14" name="Group 13">
-                    <a:extLst>
-                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3738FE91-1B1E-426A-BFA8-86F67E35D46D}"/>
-                      </a:ext>
-                    </a:extLst>
-                  </xdr:cNvPr>
-                  <xdr:cNvGrpSpPr/>
-                </xdr:nvGrpSpPr>
-                <xdr:grpSpPr>
-                  <a:xfrm>
-                    <a:off x="0" y="0"/>
-                    <a:ext cx="1324672" cy="1840183"/>
-                    <a:chOff x="0" y="0"/>
-                    <a:chExt cx="1325379" cy="1840183"/>
-                  </a:xfrm>
-                </xdr:grpSpPr>
-                <xdr:cxnSp macro="">
-                  <xdr:nvCxnSpPr>
-                    <xdr:cNvPr id="15" name="Straight Connector 14">
-                      <a:extLst>
-                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3C088A4-337B-4863-977A-D775C42DFB78}"/>
-                        </a:ext>
-                      </a:extLst>
-                    </xdr:cNvPr>
-                    <xdr:cNvCxnSpPr/>
-                  </xdr:nvCxnSpPr>
-                  <xdr:spPr>
-                    <a:xfrm>
-                      <a:off x="46895" y="1497919"/>
-                      <a:ext cx="323797" cy="0"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="line">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:ln w="28575"/>
-                  </xdr:spPr>
-                  <xdr:style>
-                    <a:lnRef idx="1">
-                      <a:schemeClr val="dk1"/>
-                    </a:lnRef>
-                    <a:fillRef idx="0">
-                      <a:schemeClr val="dk1"/>
-                    </a:fillRef>
-                    <a:effectRef idx="0">
-                      <a:schemeClr val="dk1"/>
-                    </a:effectRef>
-                    <a:fontRef idx="minor">
-                      <a:schemeClr val="tx1"/>
-                    </a:fontRef>
-                  </xdr:style>
-                </xdr:cxnSp>
-                <xdr:cxnSp macro="">
-                  <xdr:nvCxnSpPr>
-                    <xdr:cNvPr id="16" name="Straight Connector 15">
-                      <a:extLst>
-                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BA13CAD-90D1-499C-B759-EE9305D6F1D9}"/>
-                        </a:ext>
-                      </a:extLst>
-                    </xdr:cNvPr>
-                    <xdr:cNvCxnSpPr/>
-                  </xdr:nvCxnSpPr>
-                  <xdr:spPr>
-                    <a:xfrm flipV="1">
-                      <a:off x="24315" y="1196456"/>
-                      <a:ext cx="504136" cy="8885"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="line">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:ln w="28575">
-                      <a:prstDash val="lgDashDot"/>
-                    </a:ln>
-                  </xdr:spPr>
-                  <xdr:style>
-                    <a:lnRef idx="1">
-                      <a:schemeClr val="dk1"/>
-                    </a:lnRef>
-                    <a:fillRef idx="0">
-                      <a:schemeClr val="dk1"/>
-                    </a:fillRef>
-                    <a:effectRef idx="0">
-                      <a:schemeClr val="dk1"/>
-                    </a:effectRef>
-                    <a:fontRef idx="minor">
-                      <a:schemeClr val="tx1"/>
-                    </a:fontRef>
-                  </xdr:style>
-                </xdr:cxnSp>
-                <xdr:cxnSp macro="">
-                  <xdr:nvCxnSpPr>
-                    <xdr:cNvPr id="17" name="Straight Connector 16">
-                      <a:extLst>
-                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7669859-73AA-46ED-9DBD-1892F1F0366B}"/>
-                        </a:ext>
-                      </a:extLst>
-                    </xdr:cNvPr>
-                    <xdr:cNvCxnSpPr/>
-                  </xdr:nvCxnSpPr>
-                  <xdr:spPr>
-                    <a:xfrm>
-                      <a:off x="1981" y="925698"/>
-                      <a:ext cx="365546" cy="0"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="line">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:ln w="28575">
-                      <a:prstDash val="dashDot"/>
-                    </a:ln>
-                  </xdr:spPr>
-                  <xdr:style>
-                    <a:lnRef idx="1">
-                      <a:schemeClr val="dk1"/>
-                    </a:lnRef>
-                    <a:fillRef idx="0">
-                      <a:schemeClr val="dk1"/>
-                    </a:fillRef>
-                    <a:effectRef idx="0">
-                      <a:schemeClr val="dk1"/>
-                    </a:effectRef>
-                    <a:fontRef idx="minor">
-                      <a:schemeClr val="tx1"/>
-                    </a:fontRef>
-                  </xdr:style>
-                </xdr:cxnSp>
-                <xdr:cxnSp macro="">
-                  <xdr:nvCxnSpPr>
-                    <xdr:cNvPr id="18" name="Straight Connector 17">
-                      <a:extLst>
-                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE68454-7AD2-4289-A22A-F51B7293BFBB}"/>
-                        </a:ext>
-                      </a:extLst>
-                    </xdr:cNvPr>
-                    <xdr:cNvCxnSpPr/>
-                  </xdr:nvCxnSpPr>
-                  <xdr:spPr>
-                    <a:xfrm>
-                      <a:off x="48715" y="642536"/>
-                      <a:ext cx="319984" cy="0"/>
-                    </a:xfrm>
-                    <a:prstGeom prst="line">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:ln w="28575">
-                      <a:prstDash val="sysDash"/>
-                    </a:ln>
-                  </xdr:spPr>
-                  <xdr:style>
-                    <a:lnRef idx="1">
-                      <a:schemeClr val="dk1"/>
-                    </a:lnRef>
-                    <a:fillRef idx="0">
-                      <a:schemeClr val="dk1"/>
-                    </a:fillRef>
-                    <a:effectRef idx="0">
-                      <a:schemeClr val="dk1"/>
-                    </a:effectRef>
-                    <a:fontRef idx="minor">
-                      <a:schemeClr val="tx1"/>
-                    </a:fontRef>
-                  </xdr:style>
-                </xdr:cxnSp>
-                <xdr:grpSp>
-                  <xdr:nvGrpSpPr>
-                    <xdr:cNvPr id="19" name="Group 18">
-                      <a:extLst>
-                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{725DEB11-184B-4863-9AA5-A08309CDF789}"/>
-                        </a:ext>
-                      </a:extLst>
-                    </xdr:cNvPr>
-                    <xdr:cNvGrpSpPr/>
-                  </xdr:nvGrpSpPr>
-                  <xdr:grpSpPr>
-                    <a:xfrm>
-                      <a:off x="0" y="0"/>
-                      <a:ext cx="1325379" cy="1840183"/>
-                      <a:chOff x="0" y="0"/>
-                      <a:chExt cx="1326026" cy="1849660"/>
-                    </a:xfrm>
-                  </xdr:grpSpPr>
-                  <xdr:grpSp>
-                    <xdr:nvGrpSpPr>
-                      <xdr:cNvPr id="20" name="Group 19">
-                        <a:extLst>
-                          <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF67B05F-2897-4D12-BE44-D7C6BDCDC4A0}"/>
-                          </a:ext>
-                        </a:extLst>
-                      </xdr:cNvPr>
-                      <xdr:cNvGrpSpPr/>
-                    </xdr:nvGrpSpPr>
-                    <xdr:grpSpPr>
-                      <a:xfrm>
-                        <a:off x="46921" y="255953"/>
-                        <a:ext cx="1279105" cy="1593707"/>
-                        <a:chOff x="46921" y="255953"/>
-                        <a:chExt cx="1289160" cy="1588523"/>
-                      </a:xfrm>
-                    </xdr:grpSpPr>
-                    <xdr:grpSp>
-                      <xdr:nvGrpSpPr>
-                        <xdr:cNvPr id="22" name="Group 21">
-                          <a:extLst>
-                            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47134F9D-67F2-4D2D-9821-71112C9936E9}"/>
-                            </a:ext>
-                          </a:extLst>
-                        </xdr:cNvPr>
-                        <xdr:cNvGrpSpPr/>
-                      </xdr:nvGrpSpPr>
-                      <xdr:grpSpPr>
-                        <a:xfrm>
-                          <a:off x="307204" y="255953"/>
-                          <a:ext cx="1028877" cy="1588523"/>
-                          <a:chOff x="307204" y="255953"/>
-                          <a:chExt cx="1015737" cy="1559035"/>
-                        </a:xfrm>
-                      </xdr:grpSpPr>
-                      <xdr:grpSp>
-                        <xdr:nvGrpSpPr>
-                          <xdr:cNvPr id="24" name="Group 23">
-                            <a:extLst>
-                              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61195EC6-A891-45CD-AD78-C04B44940896}"/>
-                              </a:ext>
-                            </a:extLst>
-                          </xdr:cNvPr>
-                          <xdr:cNvGrpSpPr/>
-                        </xdr:nvGrpSpPr>
-                        <xdr:grpSpPr>
-                          <a:xfrm>
-                            <a:off x="307204" y="255953"/>
-                            <a:ext cx="1015737" cy="1559035"/>
-                            <a:chOff x="307204" y="255953"/>
-                            <a:chExt cx="879603" cy="1591441"/>
-                          </a:xfrm>
-                        </xdr:grpSpPr>
-                        <xdr:sp macro="" textlink="">
-                          <xdr:nvSpPr>
-                            <xdr:cNvPr id="28" name="Rectangle 27">
-                              <a:extLst>
-                                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4E1CF06-AA74-4B6E-8E03-7D69ABD8F62C}"/>
-                                </a:ext>
-                              </a:extLst>
-                            </xdr:cNvPr>
-                            <xdr:cNvSpPr/>
-                          </xdr:nvSpPr>
-                          <xdr:spPr>
-                            <a:xfrm>
-                              <a:off x="330033" y="255953"/>
-                              <a:ext cx="715234" cy="256167"/>
-                            </a:xfrm>
-                            <a:prstGeom prst="rect">
-                              <a:avLst/>
-                            </a:prstGeom>
-                            <a:solidFill>
-                              <a:schemeClr val="bg1"/>
-                            </a:solidFill>
-                            <a:ln>
-                              <a:noFill/>
-                            </a:ln>
-                          </xdr:spPr>
-                          <xdr:style>
-                            <a:lnRef idx="2">
-                              <a:schemeClr val="accent1">
-                                <a:shade val="50000"/>
-                              </a:schemeClr>
-                            </a:lnRef>
-                            <a:fillRef idx="1">
-                              <a:schemeClr val="accent1"/>
-                            </a:fillRef>
-                            <a:effectRef idx="0">
-                              <a:schemeClr val="accent1"/>
-                            </a:effectRef>
-                            <a:fontRef idx="minor">
-                              <a:schemeClr val="lt1"/>
-                            </a:fontRef>
-                          </xdr:style>
-                          <xdr:txBody>
-                            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-                            <a:lstStyle>
-                              <a:lvl1pPr marL="0" indent="0">
-                                <a:defRPr sz="1100">
-                                  <a:solidFill>
-                                    <a:schemeClr val="lt1"/>
-                                  </a:solidFill>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:defRPr>
-                              </a:lvl1pPr>
-                              <a:lvl2pPr marL="457200" indent="0">
-                                <a:defRPr sz="1100">
-                                  <a:solidFill>
-                                    <a:schemeClr val="lt1"/>
-                                  </a:solidFill>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:defRPr>
-                              </a:lvl2pPr>
-                              <a:lvl3pPr marL="914400" indent="0">
-                                <a:defRPr sz="1100">
-                                  <a:solidFill>
-                                    <a:schemeClr val="lt1"/>
-                                  </a:solidFill>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:defRPr>
-                              </a:lvl3pPr>
-                              <a:lvl4pPr marL="1371600" indent="0">
-                                <a:defRPr sz="1100">
-                                  <a:solidFill>
-                                    <a:schemeClr val="lt1"/>
-                                  </a:solidFill>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:defRPr>
-                              </a:lvl4pPr>
-                              <a:lvl5pPr marL="1828800" indent="0">
-                                <a:defRPr sz="1100">
-                                  <a:solidFill>
-                                    <a:schemeClr val="lt1"/>
-                                  </a:solidFill>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:defRPr>
-                              </a:lvl5pPr>
-                              <a:lvl6pPr marL="2286000" indent="0">
-                                <a:defRPr sz="1100">
-                                  <a:solidFill>
-                                    <a:schemeClr val="lt1"/>
-                                  </a:solidFill>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:defRPr>
-                              </a:lvl6pPr>
-                              <a:lvl7pPr marL="2743200" indent="0">
-                                <a:defRPr sz="1100">
-                                  <a:solidFill>
-                                    <a:schemeClr val="lt1"/>
-                                  </a:solidFill>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:defRPr>
-                              </a:lvl7pPr>
-                              <a:lvl8pPr marL="3200400" indent="0">
-                                <a:defRPr sz="1100">
-                                  <a:solidFill>
-                                    <a:schemeClr val="lt1"/>
-                                  </a:solidFill>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:defRPr>
-                              </a:lvl8pPr>
-                              <a:lvl9pPr marL="3657600" indent="0">
-                                <a:defRPr sz="1100">
-                                  <a:solidFill>
-                                    <a:schemeClr val="lt1"/>
-                                  </a:solidFill>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:defRPr>
-                              </a:lvl9pPr>
-                            </a:lstStyle>
-                            <a:p>
-                              <a:pPr algn="l"/>
-                              <a:r>
-                                <a:rPr lang="en-US" sz="1200" b="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                </a:rPr>
-                                <a:t>= 0.7</a:t>
-                              </a:r>
-                              <a:r>
-                                <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                </a:rPr>
-                                <a:t> MAF</a:t>
-                              </a:r>
-                              <a:endParaRPr lang="en-US" sz="1200" b="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                              </a:endParaRPr>
-                            </a:p>
-                          </xdr:txBody>
-                        </xdr:sp>
-                        <xdr:sp macro="" textlink="">
-                          <xdr:nvSpPr>
-                            <xdr:cNvPr id="29" name="Rectangle 28">
-                              <a:extLst>
-                                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{585669F7-62EF-44F8-8D7D-9302889A1319}"/>
-                                </a:ext>
-                              </a:extLst>
-                            </xdr:cNvPr>
-                            <xdr:cNvSpPr/>
-                          </xdr:nvSpPr>
-                          <xdr:spPr>
-                            <a:xfrm>
-                              <a:off x="328364" y="511530"/>
-                              <a:ext cx="773529" cy="316555"/>
-                            </a:xfrm>
-                            <a:prstGeom prst="rect">
-                              <a:avLst/>
-                            </a:prstGeom>
-                            <a:solidFill>
-                              <a:schemeClr val="bg1"/>
-                            </a:solidFill>
-                            <a:ln>
-                              <a:noFill/>
-                            </a:ln>
-                          </xdr:spPr>
-                          <xdr:style>
-                            <a:lnRef idx="2">
-                              <a:schemeClr val="accent1">
-                                <a:shade val="50000"/>
-                              </a:schemeClr>
-                            </a:lnRef>
-                            <a:fillRef idx="1">
-                              <a:schemeClr val="accent1"/>
-                            </a:fillRef>
-                            <a:effectRef idx="0">
-                              <a:schemeClr val="accent1"/>
-                            </a:effectRef>
-                            <a:fontRef idx="minor">
-                              <a:schemeClr val="lt1"/>
-                            </a:fontRef>
-                          </xdr:style>
-                          <xdr:txBody>
-                            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-                            <a:lstStyle>
-                              <a:lvl1pPr marL="0" indent="0">
-                                <a:defRPr sz="1100">
-                                  <a:solidFill>
-                                    <a:schemeClr val="lt1"/>
-                                  </a:solidFill>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:defRPr>
-                              </a:lvl1pPr>
-                              <a:lvl2pPr marL="457200" indent="0">
-                                <a:defRPr sz="1100">
-                                  <a:solidFill>
-                                    <a:schemeClr val="lt1"/>
-                                  </a:solidFill>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:defRPr>
-                              </a:lvl2pPr>
-                              <a:lvl3pPr marL="914400" indent="0">
-                                <a:defRPr sz="1100">
-                                  <a:solidFill>
-                                    <a:schemeClr val="lt1"/>
-                                  </a:solidFill>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:defRPr>
-                              </a:lvl3pPr>
-                              <a:lvl4pPr marL="1371600" indent="0">
-                                <a:defRPr sz="1100">
-                                  <a:solidFill>
-                                    <a:schemeClr val="lt1"/>
-                                  </a:solidFill>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:defRPr>
-                              </a:lvl4pPr>
-                              <a:lvl5pPr marL="1828800" indent="0">
-                                <a:defRPr sz="1100">
-                                  <a:solidFill>
-                                    <a:schemeClr val="lt1"/>
-                                  </a:solidFill>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:defRPr>
-                              </a:lvl5pPr>
-                              <a:lvl6pPr marL="2286000" indent="0">
-                                <a:defRPr sz="1100">
-                                  <a:solidFill>
-                                    <a:schemeClr val="lt1"/>
-                                  </a:solidFill>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:defRPr>
-                              </a:lvl6pPr>
-                              <a:lvl7pPr marL="2743200" indent="0">
-                                <a:defRPr sz="1100">
-                                  <a:solidFill>
-                                    <a:schemeClr val="lt1"/>
-                                  </a:solidFill>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:defRPr>
-                              </a:lvl7pPr>
-                              <a:lvl8pPr marL="3200400" indent="0">
-                                <a:defRPr sz="1100">
-                                  <a:solidFill>
-                                    <a:schemeClr val="lt1"/>
-                                  </a:solidFill>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:defRPr>
-                              </a:lvl8pPr>
-                              <a:lvl9pPr marL="3657600" indent="0">
-                                <a:defRPr sz="1100">
-                                  <a:solidFill>
-                                    <a:schemeClr val="lt1"/>
-                                  </a:solidFill>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:defRPr>
-                              </a:lvl9pPr>
-                            </a:lstStyle>
-                            <a:p>
-                              <a:pPr algn="l"/>
-                              <a:r>
-                                <a:rPr lang="en-US" sz="1200" b="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                </a:rPr>
-                                <a:t>= 0.8 MAF</a:t>
-                              </a:r>
-                            </a:p>
-                          </xdr:txBody>
-                        </xdr:sp>
-                        <xdr:sp macro="" textlink="">
-                          <xdr:nvSpPr>
-                            <xdr:cNvPr id="30" name="Rectangle 29">
-                              <a:extLst>
-                                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B7D7A56-D5A6-4B06-A7ED-3C9634611CB8}"/>
-                                </a:ext>
-                              </a:extLst>
-                            </xdr:cNvPr>
-                            <xdr:cNvSpPr/>
-                          </xdr:nvSpPr>
-                          <xdr:spPr>
-                            <a:xfrm>
-                              <a:off x="307204" y="1620324"/>
-                              <a:ext cx="879603" cy="227070"/>
-                            </a:xfrm>
-                            <a:prstGeom prst="rect">
-                              <a:avLst/>
-                            </a:prstGeom>
-                            <a:solidFill>
-                              <a:schemeClr val="bg1"/>
-                            </a:solidFill>
-                            <a:ln>
-                              <a:noFill/>
-                            </a:ln>
-                          </xdr:spPr>
-                          <xdr:style>
-                            <a:lnRef idx="2">
-                              <a:schemeClr val="accent1">
-                                <a:shade val="50000"/>
-                              </a:schemeClr>
-                            </a:lnRef>
-                            <a:fillRef idx="1">
-                              <a:schemeClr val="accent1"/>
-                            </a:fillRef>
-                            <a:effectRef idx="0">
-                              <a:schemeClr val="accent1"/>
-                            </a:effectRef>
-                            <a:fontRef idx="minor">
-                              <a:schemeClr val="lt1"/>
-                            </a:fontRef>
-                          </xdr:style>
-                          <xdr:txBody>
-                            <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-                            <a:lstStyle>
-                              <a:lvl1pPr marL="0" indent="0">
-                                <a:defRPr sz="1100">
-                                  <a:solidFill>
-                                    <a:schemeClr val="lt1"/>
-                                  </a:solidFill>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:defRPr>
-                              </a:lvl1pPr>
-                              <a:lvl2pPr marL="457200" indent="0">
-                                <a:defRPr sz="1100">
-                                  <a:solidFill>
-                                    <a:schemeClr val="lt1"/>
-                                  </a:solidFill>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:defRPr>
-                              </a:lvl2pPr>
-                              <a:lvl3pPr marL="914400" indent="0">
-                                <a:defRPr sz="1100">
-                                  <a:solidFill>
-                                    <a:schemeClr val="lt1"/>
-                                  </a:solidFill>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:defRPr>
-                              </a:lvl3pPr>
-                              <a:lvl4pPr marL="1371600" indent="0">
-                                <a:defRPr sz="1100">
-                                  <a:solidFill>
-                                    <a:schemeClr val="lt1"/>
-                                  </a:solidFill>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:defRPr>
-                              </a:lvl4pPr>
-                              <a:lvl5pPr marL="1828800" indent="0">
-                                <a:defRPr sz="1100">
-                                  <a:solidFill>
-                                    <a:schemeClr val="lt1"/>
-                                  </a:solidFill>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:defRPr>
-                              </a:lvl5pPr>
-                              <a:lvl6pPr marL="2286000" indent="0">
-                                <a:defRPr sz="1100">
-                                  <a:solidFill>
-                                    <a:schemeClr val="lt1"/>
-                                  </a:solidFill>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:defRPr>
-                              </a:lvl6pPr>
-                              <a:lvl7pPr marL="2743200" indent="0">
-                                <a:defRPr sz="1100">
-                                  <a:solidFill>
-                                    <a:schemeClr val="lt1"/>
-                                  </a:solidFill>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:defRPr>
-                              </a:lvl7pPr>
-                              <a:lvl8pPr marL="3200400" indent="0">
-                                <a:defRPr sz="1100">
-                                  <a:solidFill>
-                                    <a:schemeClr val="lt1"/>
-                                  </a:solidFill>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:defRPr>
-                              </a:lvl8pPr>
-                              <a:lvl9pPr marL="3657600" indent="0">
-                                <a:defRPr sz="1100">
-                                  <a:solidFill>
-                                    <a:schemeClr val="lt1"/>
-                                  </a:solidFill>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:defRPr>
-                              </a:lvl9pPr>
-                            </a:lstStyle>
-                            <a:p>
-                              <a:pPr algn="l"/>
-                              <a:r>
-                                <a:rPr lang="en-US" sz="1200" b="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                </a:rPr>
-                                <a:t>= Ideal</a:t>
-                              </a:r>
-                              <a:r>
-                                <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                </a:rPr>
-                                <a:t> </a:t>
-                              </a:r>
-                              <a:r>
-                                <a:rPr lang="en-US" sz="1200" b="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                </a:rPr>
-                                <a:t>Point</a:t>
-                              </a:r>
-                            </a:p>
-                          </xdr:txBody>
-                        </xdr:sp>
-                      </xdr:grpSp>
-                      <xdr:sp macro="" textlink="">
-                        <xdr:nvSpPr>
-                          <xdr:cNvPr id="25" name="Rectangle 24">
-                            <a:extLst>
-                              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3959632-4111-4EC1-8493-49DEAD213B6C}"/>
-                              </a:ext>
-                            </a:extLst>
-                          </xdr:cNvPr>
-                          <xdr:cNvSpPr/>
-                        </xdr:nvSpPr>
-                        <xdr:spPr>
-                          <a:xfrm>
-                            <a:off x="322667" y="763835"/>
-                            <a:ext cx="930788" cy="308962"/>
-                          </a:xfrm>
-                          <a:prstGeom prst="rect">
-                            <a:avLst/>
-                          </a:prstGeom>
-                          <a:solidFill>
-                            <a:schemeClr val="bg1"/>
-                          </a:solidFill>
-                          <a:ln>
-                            <a:noFill/>
-                          </a:ln>
-                        </xdr:spPr>
-                        <xdr:style>
-                          <a:lnRef idx="2">
-                            <a:schemeClr val="accent1">
-                              <a:shade val="50000"/>
-                            </a:schemeClr>
-                          </a:lnRef>
-                          <a:fillRef idx="1">
-                            <a:schemeClr val="accent1"/>
-                          </a:fillRef>
-                          <a:effectRef idx="0">
-                            <a:schemeClr val="accent1"/>
-                          </a:effectRef>
-                          <a:fontRef idx="minor">
-                            <a:schemeClr val="lt1"/>
-                          </a:fontRef>
-                        </xdr:style>
-                        <xdr:txBody>
-                          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-                          <a:lstStyle>
-                            <a:lvl1pPr marL="0" indent="0">
-                              <a:defRPr sz="1100">
-                                <a:solidFill>
-                                  <a:schemeClr val="lt1"/>
-                                </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:defRPr>
-                            </a:lvl1pPr>
-                            <a:lvl2pPr marL="457200" indent="0">
-                              <a:defRPr sz="1100">
-                                <a:solidFill>
-                                  <a:schemeClr val="lt1"/>
-                                </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:defRPr>
-                            </a:lvl2pPr>
-                            <a:lvl3pPr marL="914400" indent="0">
-                              <a:defRPr sz="1100">
-                                <a:solidFill>
-                                  <a:schemeClr val="lt1"/>
-                                </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:defRPr>
-                            </a:lvl3pPr>
-                            <a:lvl4pPr marL="1371600" indent="0">
-                              <a:defRPr sz="1100">
-                                <a:solidFill>
-                                  <a:schemeClr val="lt1"/>
-                                </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:defRPr>
-                            </a:lvl4pPr>
-                            <a:lvl5pPr marL="1828800" indent="0">
-                              <a:defRPr sz="1100">
-                                <a:solidFill>
-                                  <a:schemeClr val="lt1"/>
-                                </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:defRPr>
-                            </a:lvl5pPr>
-                            <a:lvl6pPr marL="2286000" indent="0">
-                              <a:defRPr sz="1100">
-                                <a:solidFill>
-                                  <a:schemeClr val="lt1"/>
-                                </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:defRPr>
-                            </a:lvl6pPr>
-                            <a:lvl7pPr marL="2743200" indent="0">
-                              <a:defRPr sz="1100">
-                                <a:solidFill>
-                                  <a:schemeClr val="lt1"/>
-                                </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:defRPr>
-                            </a:lvl7pPr>
-                            <a:lvl8pPr marL="3200400" indent="0">
-                              <a:defRPr sz="1100">
-                                <a:solidFill>
-                                  <a:schemeClr val="lt1"/>
-                                </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:defRPr>
-                            </a:lvl8pPr>
-                            <a:lvl9pPr marL="3657600" indent="0">
-                              <a:defRPr sz="1100">
-                                <a:solidFill>
-                                  <a:schemeClr val="lt1"/>
-                                </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:defRPr>
-                            </a:lvl9pPr>
-                          </a:lstStyle>
-                          <a:p>
-                            <a:pPr algn="l"/>
-                            <a:r>
-                              <a:rPr lang="en-US" sz="1200" b="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                              </a:rPr>
-                              <a:t>= 0.9 MAF</a:t>
-                            </a:r>
-                          </a:p>
-                        </xdr:txBody>
-                      </xdr:sp>
-                      <xdr:sp macro="" textlink="">
-                        <xdr:nvSpPr>
-                          <xdr:cNvPr id="26" name="Rectangle 25">
-                            <a:extLst>
-                              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{556EE768-3865-4A3C-B177-688699D51947}"/>
-                              </a:ext>
-                            </a:extLst>
-                          </xdr:cNvPr>
-                          <xdr:cNvSpPr/>
-                        </xdr:nvSpPr>
-                        <xdr:spPr>
-                          <a:xfrm>
-                            <a:off x="322667" y="1041867"/>
-                            <a:ext cx="930788" cy="308962"/>
-                          </a:xfrm>
-                          <a:prstGeom prst="rect">
-                            <a:avLst/>
-                          </a:prstGeom>
-                          <a:solidFill>
-                            <a:schemeClr val="bg1"/>
-                          </a:solidFill>
-                          <a:ln>
-                            <a:noFill/>
-                          </a:ln>
-                        </xdr:spPr>
-                        <xdr:style>
-                          <a:lnRef idx="2">
-                            <a:schemeClr val="accent1">
-                              <a:shade val="50000"/>
-                            </a:schemeClr>
-                          </a:lnRef>
-                          <a:fillRef idx="1">
-                            <a:schemeClr val="accent1"/>
-                          </a:fillRef>
-                          <a:effectRef idx="0">
-                            <a:schemeClr val="accent1"/>
-                          </a:effectRef>
-                          <a:fontRef idx="minor">
-                            <a:schemeClr val="lt1"/>
-                          </a:fontRef>
-                        </xdr:style>
-                        <xdr:txBody>
-                          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-                          <a:lstStyle>
-                            <a:lvl1pPr marL="0" indent="0">
-                              <a:defRPr sz="1100">
-                                <a:solidFill>
-                                  <a:schemeClr val="lt1"/>
-                                </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:defRPr>
-                            </a:lvl1pPr>
-                            <a:lvl2pPr marL="457200" indent="0">
-                              <a:defRPr sz="1100">
-                                <a:solidFill>
-                                  <a:schemeClr val="lt1"/>
-                                </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:defRPr>
-                            </a:lvl2pPr>
-                            <a:lvl3pPr marL="914400" indent="0">
-                              <a:defRPr sz="1100">
-                                <a:solidFill>
-                                  <a:schemeClr val="lt1"/>
-                                </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:defRPr>
-                            </a:lvl3pPr>
-                            <a:lvl4pPr marL="1371600" indent="0">
-                              <a:defRPr sz="1100">
-                                <a:solidFill>
-                                  <a:schemeClr val="lt1"/>
-                                </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:defRPr>
-                            </a:lvl4pPr>
-                            <a:lvl5pPr marL="1828800" indent="0">
-                              <a:defRPr sz="1100">
-                                <a:solidFill>
-                                  <a:schemeClr val="lt1"/>
-                                </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:defRPr>
-                            </a:lvl5pPr>
-                            <a:lvl6pPr marL="2286000" indent="0">
-                              <a:defRPr sz="1100">
-                                <a:solidFill>
-                                  <a:schemeClr val="lt1"/>
-                                </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:defRPr>
-                            </a:lvl6pPr>
-                            <a:lvl7pPr marL="2743200" indent="0">
-                              <a:defRPr sz="1100">
-                                <a:solidFill>
-                                  <a:schemeClr val="lt1"/>
-                                </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:defRPr>
-                            </a:lvl7pPr>
-                            <a:lvl8pPr marL="3200400" indent="0">
-                              <a:defRPr sz="1100">
-                                <a:solidFill>
-                                  <a:schemeClr val="lt1"/>
-                                </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:defRPr>
-                            </a:lvl8pPr>
-                            <a:lvl9pPr marL="3657600" indent="0">
-                              <a:defRPr sz="1100">
-                                <a:solidFill>
-                                  <a:schemeClr val="lt1"/>
-                                </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:defRPr>
-                            </a:lvl9pPr>
-                          </a:lstStyle>
-                          <a:p>
-                            <a:pPr algn="l"/>
-                            <a:r>
-                              <a:rPr lang="en-US" sz="1200" b="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                              </a:rPr>
-                              <a:t>= 1.0 MAF</a:t>
-                            </a:r>
-                          </a:p>
-                        </xdr:txBody>
-                      </xdr:sp>
-                      <xdr:sp macro="" textlink="">
-                        <xdr:nvSpPr>
-                          <xdr:cNvPr id="27" name="Rectangle 26">
-                            <a:extLst>
-                              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3904C143-DEEB-4BBF-80AB-37FA10237D5E}"/>
-                              </a:ext>
-                            </a:extLst>
-                          </xdr:cNvPr>
-                          <xdr:cNvSpPr/>
-                        </xdr:nvSpPr>
-                        <xdr:spPr>
-                          <a:xfrm>
-                            <a:off x="333528" y="1325453"/>
-                            <a:ext cx="930788" cy="308962"/>
-                          </a:xfrm>
-                          <a:prstGeom prst="rect">
-                            <a:avLst/>
-                          </a:prstGeom>
-                          <a:solidFill>
-                            <a:schemeClr val="bg1"/>
-                          </a:solidFill>
-                          <a:ln>
-                            <a:noFill/>
-                          </a:ln>
-                        </xdr:spPr>
-                        <xdr:style>
-                          <a:lnRef idx="2">
-                            <a:schemeClr val="accent1">
-                              <a:shade val="50000"/>
-                            </a:schemeClr>
-                          </a:lnRef>
-                          <a:fillRef idx="1">
-                            <a:schemeClr val="accent1"/>
-                          </a:fillRef>
-                          <a:effectRef idx="0">
-                            <a:schemeClr val="accent1"/>
-                          </a:effectRef>
-                          <a:fontRef idx="minor">
-                            <a:schemeClr val="lt1"/>
-                          </a:fontRef>
-                        </xdr:style>
-                        <xdr:txBody>
-                          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-                          <a:lstStyle>
-                            <a:lvl1pPr marL="0" indent="0">
-                              <a:defRPr sz="1100">
-                                <a:solidFill>
-                                  <a:schemeClr val="lt1"/>
-                                </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:defRPr>
-                            </a:lvl1pPr>
-                            <a:lvl2pPr marL="457200" indent="0">
-                              <a:defRPr sz="1100">
-                                <a:solidFill>
-                                  <a:schemeClr val="lt1"/>
-                                </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:defRPr>
-                            </a:lvl2pPr>
-                            <a:lvl3pPr marL="914400" indent="0">
-                              <a:defRPr sz="1100">
-                                <a:solidFill>
-                                  <a:schemeClr val="lt1"/>
-                                </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:defRPr>
-                            </a:lvl3pPr>
-                            <a:lvl4pPr marL="1371600" indent="0">
-                              <a:defRPr sz="1100">
-                                <a:solidFill>
-                                  <a:schemeClr val="lt1"/>
-                                </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:defRPr>
-                            </a:lvl4pPr>
-                            <a:lvl5pPr marL="1828800" indent="0">
-                              <a:defRPr sz="1100">
-                                <a:solidFill>
-                                  <a:schemeClr val="lt1"/>
-                                </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:defRPr>
-                            </a:lvl5pPr>
-                            <a:lvl6pPr marL="2286000" indent="0">
-                              <a:defRPr sz="1100">
-                                <a:solidFill>
-                                  <a:schemeClr val="lt1"/>
-                                </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:defRPr>
-                            </a:lvl6pPr>
-                            <a:lvl7pPr marL="2743200" indent="0">
-                              <a:defRPr sz="1100">
-                                <a:solidFill>
-                                  <a:schemeClr val="lt1"/>
-                                </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:defRPr>
-                            </a:lvl7pPr>
-                            <a:lvl8pPr marL="3200400" indent="0">
-                              <a:defRPr sz="1100">
-                                <a:solidFill>
-                                  <a:schemeClr val="lt1"/>
-                                </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:defRPr>
-                            </a:lvl8pPr>
-                            <a:lvl9pPr marL="3657600" indent="0">
-                              <a:defRPr sz="1100">
-                                <a:solidFill>
-                                  <a:schemeClr val="lt1"/>
-                                </a:solidFill>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:defRPr>
-                            </a:lvl9pPr>
-                          </a:lstStyle>
-                          <a:p>
-                            <a:pPr algn="l"/>
-                            <a:r>
-                              <a:rPr lang="en-US" sz="1200" b="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                              </a:rPr>
-                              <a:t>= 1.1 MAF</a:t>
-                            </a:r>
-                          </a:p>
-                        </xdr:txBody>
-                      </xdr:sp>
-                    </xdr:grpSp>
-                    <xdr:cxnSp macro="">
-                      <xdr:nvCxnSpPr>
-                        <xdr:cNvPr id="23" name="Straight Connector 22">
-                          <a:extLst>
-                            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE49E258-11D1-4B8D-9710-691811149A2B}"/>
-                            </a:ext>
-                          </a:extLst>
-                        </xdr:cNvPr>
-                        <xdr:cNvCxnSpPr/>
-                      </xdr:nvCxnSpPr>
-                      <xdr:spPr>
-                        <a:xfrm>
-                          <a:off x="46921" y="400457"/>
-                          <a:ext cx="326663" cy="0"/>
-                        </a:xfrm>
-                        <a:prstGeom prst="line">
-                          <a:avLst/>
-                        </a:prstGeom>
-                        <a:ln w="28575">
-                          <a:prstDash val="sysDot"/>
-                        </a:ln>
-                      </xdr:spPr>
-                      <xdr:style>
-                        <a:lnRef idx="1">
-                          <a:schemeClr val="dk1"/>
-                        </a:lnRef>
-                        <a:fillRef idx="0">
-                          <a:schemeClr val="dk1"/>
-                        </a:fillRef>
-                        <a:effectRef idx="0">
-                          <a:schemeClr val="dk1"/>
-                        </a:effectRef>
-                        <a:fontRef idx="minor">
-                          <a:schemeClr val="tx1"/>
-                        </a:fontRef>
-                      </xdr:style>
-                    </xdr:cxnSp>
-                  </xdr:grpSp>
-                  <xdr:sp macro="" textlink="">
-                    <xdr:nvSpPr>
-                      <xdr:cNvPr id="21" name="Rectangle 20">
-                        <a:extLst>
-                          <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2A99A59-A6E4-415B-8FE1-4B46071C89D0}"/>
-                          </a:ext>
-                        </a:extLst>
-                      </xdr:cNvPr>
-                      <xdr:cNvSpPr/>
-                    </xdr:nvSpPr>
-                    <xdr:spPr>
-                      <a:xfrm>
-                        <a:off x="0" y="0"/>
-                        <a:ext cx="1326026" cy="251661"/>
-                      </a:xfrm>
-                      <a:prstGeom prst="rect">
-                        <a:avLst/>
-                      </a:prstGeom>
-                      <a:noFill/>
-                      <a:ln>
-                        <a:noFill/>
-                      </a:ln>
-                    </xdr:spPr>
-                    <xdr:style>
-                      <a:lnRef idx="2">
-                        <a:schemeClr val="accent1">
-                          <a:shade val="50000"/>
-                        </a:schemeClr>
-                      </a:lnRef>
-                      <a:fillRef idx="1">
-                        <a:schemeClr val="accent1"/>
-                      </a:fillRef>
-                      <a:effectRef idx="0">
-                        <a:schemeClr val="accent1"/>
-                      </a:effectRef>
-                      <a:fontRef idx="minor">
-                        <a:schemeClr val="lt1"/>
-                      </a:fontRef>
-                    </xdr:style>
-                    <xdr:txBody>
-                      <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-                      <a:lstStyle>
-                        <a:lvl1pPr marL="0" indent="0">
-                          <a:defRPr sz="1100">
-                            <a:solidFill>
-                              <a:schemeClr val="lt1"/>
-                            </a:solidFill>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:defRPr>
-                        </a:lvl1pPr>
-                        <a:lvl2pPr marL="457200" indent="0">
-                          <a:defRPr sz="1100">
-                            <a:solidFill>
-                              <a:schemeClr val="lt1"/>
-                            </a:solidFill>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:defRPr>
-                        </a:lvl2pPr>
-                        <a:lvl3pPr marL="914400" indent="0">
-                          <a:defRPr sz="1100">
-                            <a:solidFill>
-                              <a:schemeClr val="lt1"/>
-                            </a:solidFill>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:defRPr>
-                        </a:lvl3pPr>
-                        <a:lvl4pPr marL="1371600" indent="0">
-                          <a:defRPr sz="1100">
-                            <a:solidFill>
-                              <a:schemeClr val="lt1"/>
-                            </a:solidFill>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:defRPr>
-                        </a:lvl4pPr>
-                        <a:lvl5pPr marL="1828800" indent="0">
-                          <a:defRPr sz="1100">
-                            <a:solidFill>
-                              <a:schemeClr val="lt1"/>
-                            </a:solidFill>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:defRPr>
-                        </a:lvl5pPr>
-                        <a:lvl6pPr marL="2286000" indent="0">
-                          <a:defRPr sz="1100">
-                            <a:solidFill>
-                              <a:schemeClr val="lt1"/>
-                            </a:solidFill>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:defRPr>
-                        </a:lvl6pPr>
-                        <a:lvl7pPr marL="2743200" indent="0">
-                          <a:defRPr sz="1100">
-                            <a:solidFill>
-                              <a:schemeClr val="lt1"/>
-                            </a:solidFill>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:defRPr>
-                        </a:lvl7pPr>
-                        <a:lvl8pPr marL="3200400" indent="0">
-                          <a:defRPr sz="1100">
-                            <a:solidFill>
-                              <a:schemeClr val="lt1"/>
-                            </a:solidFill>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:defRPr>
-                        </a:lvl8pPr>
-                        <a:lvl9pPr marL="3657600" indent="0">
-                          <a:defRPr sz="1100">
-                            <a:solidFill>
-                              <a:schemeClr val="lt1"/>
-                            </a:solidFill>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:defRPr>
-                        </a:lvl9pPr>
-                      </a:lstStyle>
-                      <a:p>
-                        <a:pPr algn="l"/>
-                        <a:r>
-                          <a:rPr lang="en-US" sz="1200" b="1">
-                            <a:solidFill>
-                              <a:sysClr val="windowText" lastClr="000000"/>
-                            </a:solidFill>
-                          </a:rPr>
-                          <a:t>Monthly</a:t>
-                        </a:r>
-                        <a:r>
-                          <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
-                            <a:solidFill>
-                              <a:sysClr val="windowText" lastClr="000000"/>
-                            </a:solidFill>
-                          </a:rPr>
-                          <a:t> Volume</a:t>
-                        </a:r>
-                        <a:endParaRPr lang="en-US" sz="1200" b="1">
-                          <a:solidFill>
-                            <a:sysClr val="windowText" lastClr="000000"/>
-                          </a:solidFill>
-                        </a:endParaRPr>
-                      </a:p>
-                    </xdr:txBody>
-                  </xdr:sp>
-                </xdr:grpSp>
-              </xdr:grpSp>
-            </xdr:grpSp>
-            <xdr:sp macro="" textlink="">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="12" name="Diamond 11">
-                  <a:extLst>
-                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA4185E2-F778-4FFE-AE61-D6E449208A4B}"/>
-                    </a:ext>
-                  </a:extLst>
-                </xdr:cNvPr>
-                <xdr:cNvSpPr/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="139333" y="357754"/>
-                  <a:ext cx="100099" cy="114299"/>
-                </a:xfrm>
-                <a:prstGeom prst="diamond">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:ln>
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:ln>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="2">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="50000"/>
-                  </a:schemeClr>
-                </a:lnRef>
-                <a:fillRef idx="1">
-                  <a:schemeClr val="accent1"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:schemeClr val="accent1"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="lt1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-                <a:lstStyle>
-                  <a:lvl1pPr marL="0" indent="0">
-                    <a:defRPr sz="1100">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl1pPr>
-                  <a:lvl2pPr marL="457200" indent="0">
-                    <a:defRPr sz="1100">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl2pPr>
-                  <a:lvl3pPr marL="914400" indent="0">
-                    <a:defRPr sz="1100">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl3pPr>
-                  <a:lvl4pPr marL="1371600" indent="0">
-                    <a:defRPr sz="1100">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl4pPr>
-                  <a:lvl5pPr marL="1828800" indent="0">
-                    <a:defRPr sz="1100">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl5pPr>
-                  <a:lvl6pPr marL="2286000" indent="0">
-                    <a:defRPr sz="1100">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl6pPr>
-                  <a:lvl7pPr marL="2743200" indent="0">
-                    <a:defRPr sz="1100">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl7pPr>
-                  <a:lvl8pPr marL="3200400" indent="0">
-                    <a:defRPr sz="1100">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl8pPr>
-                  <a:lvl9pPr marL="3657600" indent="0">
-                    <a:defRPr sz="1100">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl9pPr>
-                </a:lstStyle>
-                <a:p>
-                  <a:pPr algn="l"/>
-                  <a:endParaRPr lang="en-US" sz="1100"/>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-          </xdr:grpSp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="10" name="Flowchart: Connector 9">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28B85F32-CCDC-423C-AF22-02873885C719}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="157293" y="608950"/>
-                <a:ext cx="99950" cy="105227"/>
-              </a:xfrm>
-              <a:prstGeom prst="flowChartConnector">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle>
-                <a:lvl1pPr marL="0" indent="0">
-                  <a:defRPr sz="1100">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl1pPr>
-                <a:lvl2pPr marL="457200" indent="0">
-                  <a:defRPr sz="1100">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl2pPr>
-                <a:lvl3pPr marL="914400" indent="0">
-                  <a:defRPr sz="1100">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl3pPr>
-                <a:lvl4pPr marL="1371600" indent="0">
-                  <a:defRPr sz="1100">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl4pPr>
-                <a:lvl5pPr marL="1828800" indent="0">
-                  <a:defRPr sz="1100">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl5pPr>
-                <a:lvl6pPr marL="2286000" indent="0">
-                  <a:defRPr sz="1100">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl6pPr>
-                <a:lvl7pPr marL="2743200" indent="0">
-                  <a:defRPr sz="1100">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl7pPr>
-                <a:lvl8pPr marL="3200400" indent="0">
-                  <a:defRPr sz="1100">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl8pPr>
-                <a:lvl9pPr marL="3657600" indent="0">
-                  <a:defRPr sz="1100">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl9pPr>
-              </a:lstStyle>
-              <a:p>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="6" name="Group 5">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD5247B7-2F77-46E7-A95E-14726654A6E5}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="16875342" y="7923662"/>
-              <a:ext cx="136955" cy="403420"/>
-              <a:chOff x="14601861" y="7087095"/>
-              <a:chExt cx="136955" cy="407230"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="7" name="Rectangle 6">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEA1A861-7640-4F9E-82B4-C949421103C7}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14611244" y="7391064"/>
-                <a:ext cx="127572" cy="103261"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l"/>
-                <a:endParaRPr lang="en-US" sz="1100"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="8" name="Isosceles Triangle 7">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CD91922-7AE2-4966-A3E7-BF52C8D7B8F0}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="14601861" y="7087095"/>
-                <a:ext cx="129036" cy="136080"/>
-              </a:xfrm>
-              <a:prstGeom prst="triangle">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent1">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle>
-                <a:lvl1pPr marL="0" indent="0">
-                  <a:defRPr sz="1100">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl1pPr>
-                <a:lvl2pPr marL="457200" indent="0">
-                  <a:defRPr sz="1100">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl2pPr>
-                <a:lvl3pPr marL="914400" indent="0">
-                  <a:defRPr sz="1100">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl3pPr>
-                <a:lvl4pPr marL="1371600" indent="0">
-                  <a:defRPr sz="1100">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl4pPr>
-                <a:lvl5pPr marL="1828800" indent="0">
-                  <a:defRPr sz="1100">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl5pPr>
-                <a:lvl6pPr marL="2286000" indent="0">
-                  <a:defRPr sz="1100">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl6pPr>
-                <a:lvl7pPr marL="2743200" indent="0">
-                  <a:defRPr sz="1100">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl7pPr>
-                <a:lvl8pPr marL="3200400" indent="0">
-                  <a:defRPr sz="1100">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl8pPr>
-                <a:lvl9pPr marL="3657600" indent="0">
-                  <a:defRPr sz="1100">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl9pPr>
-              </a:lstStyle>
-              <a:p>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Flowchart: Connector 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6903772B-9D5C-4DC8-8722-6405A2D3C044}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="16905714" y="8534401"/>
-            <a:ext cx="96135" cy="108968"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartConnector">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square"/>
-          <a:lstStyle>
-            <a:lvl1pPr marL="0" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" indent="0">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -7274,8 +4982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD71" sqref="AD71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7283,141 +4991,157 @@
     <col min="68" max="68" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="5"/>
+    <row r="1" spans="1:68" s="8" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
     </row>
-    <row r="2" spans="1:68" s="6" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:68" s="5" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AI2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="BC2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AI2" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="21"/>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="21"/>
+      <c r="BD2" s="26"/>
+      <c r="BE2" s="26"/>
+      <c r="BF2" s="26"/>
+      <c r="BG2" s="26"/>
+      <c r="BH2" s="26"/>
+      <c r="BI2" s="26"/>
+      <c r="BJ2" s="26"/>
+      <c r="BK2" s="26"/>
+      <c r="BL2" s="26"/>
+      <c r="BM2" s="26"/>
+      <c r="BN2" s="26"/>
+      <c r="BO2" s="26"/>
+      <c r="BP2" s="26"/>
     </row>
     <row r="3" spans="1:68" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
+      <c r="A3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
       <c r="AK3" t="s">
         <v>0</v>
       </c>
@@ -7454,61 +5178,63 @@
       <c r="AV3" t="s">
         <v>11</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BC3" s="23"/>
+      <c r="BD3" s="23"/>
+      <c r="BE3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BF3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BG3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BH3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BI3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BJ3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="BK3" t="s">
+      <c r="BK3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="BL3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="BM3" t="s">
+      <c r="BM3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="BN3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="BO3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="BP3" t="s">
+      <c r="BP3" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AI4" t="s">
         <v>12</v>
@@ -7564,55 +5290,55 @@
         <f t="shared" si="0"/>
         <v>15202576.806946</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BC4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BD4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="BE4">
+      <c r="BE4" s="23">
         <v>15774861.2803644</v>
       </c>
-      <c r="BF4">
+      <c r="BF4" s="23">
         <v>15812852.252226001</v>
       </c>
-      <c r="BG4">
+      <c r="BG4" s="23">
         <v>15853556.864934999</v>
       </c>
-      <c r="BH4">
+      <c r="BH4" s="23">
         <v>15944359.4625165</v>
       </c>
-      <c r="BI4">
+      <c r="BI4" s="23">
         <v>15992569.614719599</v>
       </c>
-      <c r="BJ4">
+      <c r="BJ4" s="23">
         <v>16022730.4553016</v>
       </c>
-      <c r="BK4">
+      <c r="BK4" s="23">
         <v>15985450.7440127</v>
       </c>
-      <c r="BL4">
+      <c r="BL4" s="23">
         <v>15948171.032723799</v>
       </c>
-      <c r="BM4">
+      <c r="BM4" s="23">
         <v>15761772.4762793</v>
       </c>
-      <c r="BN4">
+      <c r="BN4" s="23">
         <v>15575373.919834901</v>
       </c>
-      <c r="BO4">
+      <c r="BO4" s="23">
         <v>15388975.363390399</v>
       </c>
-      <c r="BP4">
+      <c r="BP4" s="23">
         <v>15202576.806946</v>
       </c>
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -7624,10 +5350,10 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
         <v>13</v>
@@ -7692,46 +5418,46 @@
         <f t="shared" si="0"/>
         <v>17475923.482845001</v>
       </c>
-      <c r="BC5" t="s">
+      <c r="BC5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BD5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="BE5">
+      <c r="BE5" s="23">
         <v>18160832.902933899</v>
       </c>
-      <c r="BF5">
+      <c r="BF5" s="23">
         <v>18192824.303467199</v>
       </c>
-      <c r="BG5">
+      <c r="BG5" s="23">
         <v>18224815.704000499</v>
       </c>
-      <c r="BH5">
+      <c r="BH5" s="23">
         <v>18288798.505067199</v>
       </c>
-      <c r="BI5">
+      <c r="BI5" s="23">
         <v>18292437.818133902</v>
       </c>
-      <c r="BJ5">
+      <c r="BJ5" s="23">
         <v>18296077.1312005</v>
       </c>
-      <c r="BK5">
+      <c r="BK5" s="23">
         <v>18258797.419911601</v>
       </c>
-      <c r="BL5">
+      <c r="BL5" s="23">
         <v>18221517.708622798</v>
       </c>
-      <c r="BM5">
+      <c r="BM5" s="23">
         <v>18035119.152178299</v>
       </c>
-      <c r="BN5">
+      <c r="BN5" s="23">
         <v>17848720.5957339</v>
       </c>
-      <c r="BO5">
+      <c r="BO5" s="23">
         <v>17662322.0392894</v>
       </c>
-      <c r="BP5">
+      <c r="BP5" s="23">
         <v>17475923.482845001</v>
       </c>
     </row>
@@ -7826,46 +5552,46 @@
         <f t="shared" si="0"/>
         <v>19962342.988203499</v>
       </c>
-      <c r="BC6" t="s">
+      <c r="BC6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BD6" t="s">
+      <c r="BD6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="BE6">
+      <c r="BE6" s="23">
         <v>20647252.408292402</v>
       </c>
-      <c r="BF6">
+      <c r="BF6" s="23">
         <v>20679243.808825798</v>
       </c>
-      <c r="BG6">
+      <c r="BG6" s="23">
         <v>20711235.209359098</v>
       </c>
-      <c r="BH6">
+      <c r="BH6" s="23">
         <v>20775218.010425799</v>
       </c>
-      <c r="BI6">
+      <c r="BI6" s="23">
         <v>20778857.3234924</v>
       </c>
-      <c r="BJ6">
+      <c r="BJ6" s="23">
         <v>20782496.636559099</v>
       </c>
-      <c r="BK6">
+      <c r="BK6" s="23">
         <v>20745216.9252702</v>
       </c>
-      <c r="BL6">
+      <c r="BL6" s="23">
         <v>20707937.213981301</v>
       </c>
-      <c r="BM6">
+      <c r="BM6" s="23">
         <v>20521538.657536902</v>
       </c>
-      <c r="BN6">
+      <c r="BN6" s="23">
         <v>20335140.101092398</v>
       </c>
-      <c r="BO6">
+      <c r="BO6" s="23">
         <v>20148741.544647999</v>
       </c>
-      <c r="BP6">
+      <c r="BP6" s="23">
         <v>19962342.988203499</v>
       </c>
     </row>
@@ -7906,46 +5632,46 @@
         <f>AL$21/1000000</f>
         <v>20.671245958692403</v>
       </c>
-      <c r="BC7" t="s">
-        <v>18</v>
-      </c>
-      <c r="BD7" t="s">
+      <c r="BC7" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="BE7">
+      <c r="BE7" s="23">
         <v>15774861.2803644</v>
       </c>
-      <c r="BF7">
+      <c r="BF7" s="23">
         <v>15806647.0236743</v>
       </c>
-      <c r="BG7">
+      <c r="BG7" s="23">
         <v>15840703.1772207</v>
       </c>
-      <c r="BH7">
+      <c r="BH7" s="23">
         <v>15916674.5966703</v>
       </c>
-      <c r="BI7">
+      <c r="BI7" s="23">
         <v>15954496.065719601</v>
       </c>
-      <c r="BJ7">
+      <c r="BJ7" s="23">
         <v>15999651.313141599</v>
       </c>
-      <c r="BK7">
+      <c r="BK7" s="23">
         <v>15964513.5984127</v>
       </c>
-      <c r="BL7">
+      <c r="BL7" s="23">
         <v>15928230.894057101</v>
       </c>
-      <c r="BM7">
+      <c r="BM7" s="23">
         <v>15746817.372279299</v>
       </c>
-      <c r="BN7">
+      <c r="BN7" s="23">
         <v>15565403.850501601</v>
       </c>
-      <c r="BO7">
+      <c r="BO7" s="23">
         <v>15383990.328723799</v>
       </c>
-      <c r="BP7">
+      <c r="BP7" s="23">
         <v>15202576.806946</v>
       </c>
     </row>
@@ -7986,46 +5712,46 @@
         <f>AM$21/1000000</f>
         <v>20.695239509092403</v>
       </c>
-      <c r="BC8" t="s">
-        <v>18</v>
-      </c>
-      <c r="BD8" t="s">
+      <c r="BC8" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="BE8">
+      <c r="BE8" s="23">
         <v>18160832.902933899</v>
       </c>
-      <c r="BF8">
+      <c r="BF8" s="23">
         <v>18188825.378400501</v>
       </c>
-      <c r="BG8">
+      <c r="BG8" s="23">
         <v>18216817.853867199</v>
       </c>
-      <c r="BH8">
+      <c r="BH8" s="23">
         <v>18272802.804800499</v>
       </c>
-      <c r="BI8">
+      <c r="BI8" s="23">
         <v>18273472.8917339</v>
       </c>
-      <c r="BJ8">
+      <c r="BJ8" s="23">
         <v>18274142.9786672</v>
       </c>
-      <c r="BK8">
+      <c r="BK8" s="23">
         <v>18237860.274311598</v>
       </c>
-      <c r="BL8">
+      <c r="BL8" s="23">
         <v>18201577.569956101</v>
       </c>
-      <c r="BM8">
+      <c r="BM8" s="23">
         <v>18020164.0481783</v>
       </c>
-      <c r="BN8">
+      <c r="BN8" s="23">
         <v>17838750.526400499</v>
       </c>
-      <c r="BO8">
+      <c r="BO8" s="23">
         <v>17657337.004622798</v>
       </c>
-      <c r="BP8">
+      <c r="BP8" s="23">
         <v>17475923.482845001</v>
       </c>
     </row>
@@ -8067,7 +5793,7 @@
         <v>20.743226609892403</v>
       </c>
       <c r="AI9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ9" t="s">
         <v>13</v>
@@ -8120,46 +5846,46 @@
         <f t="shared" si="4"/>
         <v>15202576.806946</v>
       </c>
-      <c r="BC9" t="s">
-        <v>18</v>
-      </c>
-      <c r="BD9" t="s">
+      <c r="BC9" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="BE9">
+      <c r="BE9" s="23">
         <v>20647252.408292402</v>
       </c>
-      <c r="BF9">
+      <c r="BF9" s="23">
         <v>20675244.8837591</v>
       </c>
-      <c r="BG9">
+      <c r="BG9" s="23">
         <v>20703237.359225798</v>
       </c>
-      <c r="BH9">
+      <c r="BH9" s="23">
         <v>20759222.310159098</v>
       </c>
-      <c r="BI9">
+      <c r="BI9" s="23">
         <v>20759892.397092398</v>
       </c>
-      <c r="BJ9">
+      <c r="BJ9" s="23">
         <v>20760562.484025799</v>
       </c>
-      <c r="BK9">
+      <c r="BK9" s="23">
         <v>20724279.779670201</v>
       </c>
-      <c r="BL9">
+      <c r="BL9" s="23">
         <v>20687997.0753146</v>
       </c>
-      <c r="BM9">
+      <c r="BM9" s="23">
         <v>20506583.553536899</v>
       </c>
-      <c r="BN9">
+      <c r="BN9" s="23">
         <v>20325170.031759098</v>
       </c>
-      <c r="BO9">
+      <c r="BO9" s="23">
         <v>20143756.509981301</v>
       </c>
-      <c r="BP9">
+      <c r="BP9" s="23">
         <v>19962342.988203499</v>
       </c>
     </row>
@@ -8201,7 +5927,7 @@
         <v>20.740927470692402</v>
       </c>
       <c r="AI10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ10" t="s">
         <v>14</v>
@@ -8254,46 +5980,46 @@
         <f t="shared" si="4"/>
         <v>17475923.482845001</v>
       </c>
-      <c r="BC10" t="s">
-        <v>19</v>
-      </c>
-      <c r="BD10" t="s">
+      <c r="BC10" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="BE10">
+      <c r="BE10" s="23">
         <v>15774861.2803644</v>
       </c>
-      <c r="BF10">
+      <c r="BF10" s="23">
         <v>15803544.4093985</v>
       </c>
-      <c r="BG10">
+      <c r="BG10" s="23">
         <v>15834276.3333636</v>
       </c>
-      <c r="BH10">
+      <c r="BH10" s="23">
         <v>15902832.163747201</v>
       </c>
-      <c r="BI10">
+      <c r="BI10" s="23">
         <v>15935459.2912196</v>
       </c>
-      <c r="BJ10">
+      <c r="BJ10" s="23">
         <v>15974704.345141601</v>
       </c>
-      <c r="BK10">
+      <c r="BK10" s="23">
         <v>15954045.025612701</v>
       </c>
-      <c r="BL10">
+      <c r="BL10" s="23">
         <v>15918260.824723801</v>
       </c>
-      <c r="BM10">
+      <c r="BM10" s="23">
         <v>15739339.8202793</v>
       </c>
-      <c r="BN10">
+      <c r="BN10" s="23">
         <v>15560418.8158349</v>
       </c>
-      <c r="BO10">
+      <c r="BO10" s="23">
         <v>15381497.8113904</v>
       </c>
-      <c r="BP10">
+      <c r="BP10" s="23">
         <v>15202576.806946</v>
       </c>
     </row>
@@ -8335,7 +6061,7 @@
         <v>20.7386283314924</v>
       </c>
       <c r="AI11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ11" t="s">
         <v>15</v>
@@ -8388,46 +6114,46 @@
         <f t="shared" si="4"/>
         <v>19962342.988203499</v>
       </c>
-      <c r="BC11" t="s">
-        <v>19</v>
-      </c>
-      <c r="BD11" t="s">
+      <c r="BC11" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="BE11">
+      <c r="BE11" s="23">
         <v>18160832.902933899</v>
       </c>
-      <c r="BF11">
+      <c r="BF11" s="23">
         <v>18186825.915867198</v>
       </c>
-      <c r="BG11">
+      <c r="BG11" s="23">
         <v>18212818.928800501</v>
       </c>
-      <c r="BH11">
+      <c r="BH11" s="23">
         <v>18264804.954667199</v>
       </c>
-      <c r="BI11">
+      <c r="BI11" s="23">
         <v>18263990.428533901</v>
       </c>
-      <c r="BJ11">
+      <c r="BJ11" s="23">
         <v>18263175.902400501</v>
       </c>
-      <c r="BK11">
+      <c r="BK11" s="23">
         <v>18227391.701511599</v>
       </c>
-      <c r="BL11">
+      <c r="BL11" s="23">
         <v>18191607.500622801</v>
       </c>
-      <c r="BM11">
+      <c r="BM11" s="23">
         <v>18012686.496178299</v>
       </c>
-      <c r="BN11">
+      <c r="BN11" s="23">
         <v>17833765.491733901</v>
       </c>
-      <c r="BO11">
+      <c r="BO11" s="23">
         <v>17654844.487289399</v>
       </c>
-      <c r="BP11">
+      <c r="BP11" s="23">
         <v>17475923.482845001</v>
       </c>
     </row>
@@ -8468,46 +6194,46 @@
         <f>AQ$21/1000000</f>
         <v>20.7033426340702</v>
       </c>
-      <c r="BC12" t="s">
-        <v>19</v>
-      </c>
-      <c r="BD12" t="s">
+      <c r="BC12" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="BE12">
+      <c r="BE12" s="23">
         <v>20647252.408292402</v>
       </c>
-      <c r="BF12">
+      <c r="BF12" s="23">
         <v>20673245.421225801</v>
       </c>
-      <c r="BG12">
+      <c r="BG12" s="23">
         <v>20699238.4341591</v>
       </c>
-      <c r="BH12">
+      <c r="BH12" s="23">
         <v>20751224.460025799</v>
       </c>
-      <c r="BI12">
+      <c r="BI12" s="23">
         <v>20750409.933892399</v>
       </c>
-      <c r="BJ12">
+      <c r="BJ12" s="23">
         <v>20749595.4077591</v>
       </c>
-      <c r="BK12">
+      <c r="BK12" s="23">
         <v>20713811.206870198</v>
       </c>
-      <c r="BL12">
+      <c r="BL12" s="23">
         <v>20678027.0059813</v>
       </c>
-      <c r="BM12">
+      <c r="BM12" s="23">
         <v>20499106.001536898</v>
       </c>
-      <c r="BN12">
+      <c r="BN12" s="23">
         <v>20320184.9970924</v>
       </c>
-      <c r="BO12">
+      <c r="BO12" s="23">
         <v>20141263.992648002</v>
       </c>
-      <c r="BP12">
+      <c r="BP12" s="23">
         <v>19962342.988203499</v>
       </c>
     </row>
@@ -8548,46 +6274,46 @@
         <f>AR$21/1000000</f>
         <v>20.668056936648</v>
       </c>
-      <c r="BC13" t="s">
-        <v>20</v>
-      </c>
-      <c r="BD13" t="s">
+      <c r="BC13" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="BD13" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="BE13">
+      <c r="BE13" s="23">
         <v>15774861.2803644</v>
       </c>
-      <c r="BF13">
+      <c r="BF13" s="23">
         <v>15800441.795122599</v>
       </c>
-      <c r="BG13">
+      <c r="BG13" s="23">
         <v>15827849.489506399</v>
       </c>
-      <c r="BH13">
+      <c r="BH13" s="23">
         <v>15888989.7308241</v>
       </c>
-      <c r="BI13">
+      <c r="BI13" s="23">
         <v>15916422.5167196</v>
       </c>
-      <c r="BJ13">
+      <c r="BJ13" s="23">
         <v>15949757.3771416</v>
       </c>
-      <c r="BK13">
+      <c r="BK13" s="23">
         <v>15943576.4528127</v>
       </c>
-      <c r="BL13">
+      <c r="BL13" s="23">
         <v>15908290.7553904</v>
       </c>
-      <c r="BM13">
+      <c r="BM13" s="23">
         <v>15731862.268279299</v>
       </c>
-      <c r="BN13">
+      <c r="BN13" s="23">
         <v>15555433.7811682</v>
       </c>
-      <c r="BO13">
+      <c r="BO13" s="23">
         <v>15379005.294057099</v>
       </c>
-      <c r="BP13">
+      <c r="BP13" s="23">
         <v>15202576.806946</v>
       </c>
     </row>
@@ -8629,7 +6355,7 @@
         <v>20.491628449536901</v>
       </c>
       <c r="AI14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ14" t="s">
         <v>13</v>
@@ -8682,46 +6408,46 @@
         <f t="shared" si="6"/>
         <v>15202576.806946</v>
       </c>
-      <c r="BC14" t="s">
-        <v>20</v>
-      </c>
-      <c r="BD14" t="s">
+      <c r="BC14" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="BD14" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="BE14">
+      <c r="BE14" s="23">
         <v>18160832.902933899</v>
       </c>
-      <c r="BF14">
+      <c r="BF14" s="23">
         <v>18184826.453333899</v>
       </c>
-      <c r="BG14">
+      <c r="BG14" s="23">
         <v>18208820.003733899</v>
       </c>
-      <c r="BH14">
+      <c r="BH14" s="23">
         <v>18256807.1045339</v>
       </c>
-      <c r="BI14">
+      <c r="BI14" s="23">
         <v>18254507.965333901</v>
       </c>
-      <c r="BJ14">
+      <c r="BJ14" s="23">
         <v>18252208.826133899</v>
       </c>
-      <c r="BK14">
+      <c r="BK14" s="23">
         <v>18216923.1287116</v>
       </c>
-      <c r="BL14">
+      <c r="BL14" s="23">
         <v>18181637.431289401</v>
       </c>
-      <c r="BM14">
+      <c r="BM14" s="23">
         <v>18005208.944178302</v>
       </c>
-      <c r="BN14">
+      <c r="BN14" s="23">
         <v>17828780.457067199</v>
       </c>
-      <c r="BO14">
+      <c r="BO14" s="23">
         <v>17652351.9699561</v>
       </c>
-      <c r="BP14">
+      <c r="BP14" s="23">
         <v>17475923.482845001</v>
       </c>
     </row>
@@ -8763,7 +6489,7 @@
         <v>20.315199962425798</v>
       </c>
       <c r="AI15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="s">
         <v>14</v>
@@ -8816,46 +6542,46 @@
         <f t="shared" si="6"/>
         <v>17475923.482845001</v>
       </c>
-      <c r="BC15" t="s">
-        <v>20</v>
-      </c>
-      <c r="BD15" t="s">
+      <c r="BC15" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="BD15" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="BE15">
+      <c r="BE15" s="23">
         <v>20647252.408292402</v>
       </c>
-      <c r="BF15">
+      <c r="BF15" s="23">
         <v>20671245.958692402</v>
       </c>
-      <c r="BG15">
+      <c r="BG15" s="23">
         <v>20695239.509092402</v>
       </c>
-      <c r="BH15">
+      <c r="BH15" s="23">
         <v>20743226.609892402</v>
       </c>
-      <c r="BI15">
+      <c r="BI15" s="23">
         <v>20740927.4706924</v>
       </c>
-      <c r="BJ15">
+      <c r="BJ15" s="23">
         <v>20738628.331492402</v>
       </c>
-      <c r="BK15">
+      <c r="BK15" s="23">
         <v>20703342.634070199</v>
       </c>
-      <c r="BL15">
+      <c r="BL15" s="23">
         <v>20668056.936648</v>
       </c>
-      <c r="BM15">
+      <c r="BM15" s="23">
         <v>20491628.449536901</v>
       </c>
-      <c r="BN15">
+      <c r="BN15" s="23">
         <v>20315199.962425798</v>
       </c>
-      <c r="BO15">
+      <c r="BO15" s="23">
         <v>20138771.475314599</v>
       </c>
-      <c r="BP15">
+      <c r="BP15" s="23">
         <v>19962342.988203499</v>
       </c>
     </row>
@@ -8897,7 +6623,7 @@
         <v>20.138771475314599</v>
       </c>
       <c r="AI16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ16" t="s">
         <v>15</v>
@@ -8991,7 +6717,7 @@
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="AI19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ19" t="s">
         <v>13</v>
@@ -9047,7 +6773,7 @@
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="AI20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ20" t="s">
         <v>14</v>
@@ -9103,7 +6829,7 @@
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="AI21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ21" t="s">
         <v>15</v>
@@ -9159,921 +6885,236 @@
     </row>
     <row r="40" spans="22:76" x14ac:dyDescent="0.25">
       <c r="V40" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="22:76" ht="23.25" x14ac:dyDescent="0.35">
       <c r="W43" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="Z43" s="1"/>
     </row>
     <row r="45" spans="22:76" x14ac:dyDescent="0.25">
-      <c r="BK45" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="BL45" s="11"/>
-      <c r="BM45" s="11"/>
-      <c r="BN45" s="11"/>
-      <c r="BO45" s="11"/>
-      <c r="BP45" s="11"/>
-      <c r="BQ45" s="11"/>
-      <c r="BR45" s="11"/>
-      <c r="BS45" s="11"/>
-      <c r="BT45" s="11"/>
-      <c r="BU45" s="11"/>
-      <c r="BV45" s="11"/>
-      <c r="BW45" s="11"/>
-      <c r="BX45" s="11"/>
+      <c r="BK45" s="24"/>
+      <c r="BL45" s="24"/>
+      <c r="BM45" s="24"/>
+      <c r="BN45" s="24"/>
+      <c r="BO45" s="24"/>
+      <c r="BP45" s="24"/>
+      <c r="BQ45" s="24"/>
+      <c r="BR45" s="24"/>
+      <c r="BS45" s="24"/>
+      <c r="BT45" s="24"/>
+      <c r="BU45" s="24"/>
+      <c r="BV45" s="24"/>
+      <c r="BW45" s="24"/>
+      <c r="BX45" s="24"/>
     </row>
     <row r="46" spans="22:76" x14ac:dyDescent="0.25">
-      <c r="BL46" t="s">
-        <v>27</v>
-      </c>
-      <c r="BM46" s="4">
-        <v>0</v>
-      </c>
-      <c r="BN46" s="4">
-        <v>4</v>
-      </c>
-      <c r="BO46" s="4">
-        <v>6</v>
-      </c>
-      <c r="BP46" s="4">
-        <v>8</v>
-      </c>
-      <c r="BQ46" s="4">
-        <v>9</v>
-      </c>
-      <c r="BR46" s="4">
-        <v>10</v>
-      </c>
-      <c r="BS46" s="4">
-        <v>15</v>
-      </c>
-      <c r="BT46" s="4">
-        <v>20</v>
-      </c>
-      <c r="BU46" s="4">
-        <v>25</v>
-      </c>
-      <c r="BV46" s="4">
-        <v>30</v>
-      </c>
-      <c r="BW46" s="4"/>
-      <c r="BX46" s="4"/>
+      <c r="BM46" s="3"/>
+      <c r="BN46" s="3"/>
+      <c r="BO46" s="3"/>
+      <c r="BP46" s="3"/>
+      <c r="BQ46" s="3"/>
+      <c r="BR46" s="3"/>
+      <c r="BS46" s="3"/>
+      <c r="BT46" s="3"/>
+      <c r="BU46" s="3"/>
+      <c r="BV46" s="3"/>
+      <c r="BW46" s="3"/>
+      <c r="BX46" s="3"/>
     </row>
     <row r="47" spans="22:76" x14ac:dyDescent="0.25">
-      <c r="BK47" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="BL47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="BM47">
-        <f>AK4-AK78</f>
-        <v>0</v>
-      </c>
-      <c r="BN47">
-        <f>AN4-AL78</f>
-        <v>94856.662710798904</v>
-      </c>
-      <c r="BO47">
-        <f>AO4-AM78</f>
-        <v>140664.28255049884</v>
-      </c>
-      <c r="BP47">
-        <f>AP4-AO78</f>
-        <v>300088.83843909949</v>
-      </c>
-      <c r="BQ47">
-        <f>AQ4-AP78</f>
-        <v>398496.17883899994</v>
-      </c>
-      <c r="BR47">
-        <f>AR4-AQ78</f>
-        <v>425630.87257630005</v>
-      </c>
-      <c r="BS47">
-        <f>AS4-AS78</f>
-        <v>443968.66202219948</v>
-      </c>
-      <c r="BT47">
-        <f t="shared" ref="BT47:BV62" si="10">AT4-AT78</f>
-        <v>428183.72715320066</v>
-      </c>
-      <c r="BU47">
-        <f t="shared" si="10"/>
-        <v>412398.79228409939</v>
-      </c>
-      <c r="BV47">
-        <f t="shared" si="10"/>
-        <v>396613.85741510056</v>
-      </c>
+      <c r="BK47" s="3"/>
+      <c r="BL47" s="3"/>
     </row>
     <row r="48" spans="22:76" x14ac:dyDescent="0.25">
-      <c r="BK48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="BL48" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="BM48">
-        <f t="shared" ref="BM48:BM66" si="11">AK5-AK79</f>
-        <v>0</v>
-      </c>
-      <c r="BN48">
-        <f t="shared" ref="BN48:BO66" si="12">AN5-AL79</f>
-        <v>103435.18379370123</v>
-      </c>
-      <c r="BO48">
-        <f t="shared" si="12"/>
-        <v>147130.39252720028</v>
-      </c>
-      <c r="BP48">
-        <f t="shared" ref="BP48:BR66" si="13">AP5-AO79</f>
-        <v>395201.34290159866</v>
-      </c>
-      <c r="BQ48">
-        <f t="shared" si="13"/>
-        <v>510816.31705370173</v>
-      </c>
-      <c r="BR48">
-        <f t="shared" si="13"/>
-        <v>542788.17242209986</v>
-      </c>
-      <c r="BS48">
-        <f t="shared" ref="BS48:BV66" si="14">AS5-AS79</f>
-        <v>590148.93165409938</v>
-      </c>
-      <c r="BT48">
-        <f t="shared" si="10"/>
-        <v>598549.80494000018</v>
-      </c>
-      <c r="BU48">
-        <f t="shared" si="10"/>
-        <v>606950.67822590098</v>
-      </c>
-      <c r="BV48">
-        <f t="shared" si="10"/>
-        <v>615351.55151180178</v>
-      </c>
+      <c r="BK48" s="3"/>
+      <c r="BL48" s="3"/>
     </row>
-    <row r="49" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="AJ49" s="9"/>
-      <c r="AK49" s="9"/>
-      <c r="AL49" s="9"/>
-      <c r="AM49" s="9"/>
-      <c r="AN49" s="9"/>
-      <c r="AO49" s="9"/>
-      <c r="AP49" s="9"/>
-      <c r="BK49" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="BL49" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="BM49">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BN49">
-        <f t="shared" si="12"/>
-        <v>66517.740544997156</v>
-      </c>
-      <c r="BO49">
-        <f t="shared" si="12"/>
-        <v>96615.812492400408</v>
-      </c>
-      <c r="BP49">
-        <f t="shared" si="13"/>
-        <v>322449.81938329712</v>
-      </c>
-      <c r="BQ49">
-        <f t="shared" si="13"/>
-        <v>443022.12362390012</v>
-      </c>
-      <c r="BR49">
-        <f t="shared" si="13"/>
-        <v>463901.11879340187</v>
-      </c>
-      <c r="BS49">
-        <f t="shared" si="14"/>
-        <v>444704.71683270112</v>
-      </c>
-      <c r="BT49">
-        <f t="shared" si="10"/>
-        <v>397641.28912459686</v>
-      </c>
-      <c r="BU49">
-        <f t="shared" si="10"/>
-        <v>350577.86141650006</v>
-      </c>
-      <c r="BV49">
-        <f t="shared" si="10"/>
-        <v>303514.43370839953</v>
-      </c>
+    <row r="49" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="AJ49" s="8"/>
+      <c r="AK49" s="8"/>
+      <c r="AL49" s="8"/>
+      <c r="AM49" s="8"/>
+      <c r="AN49" s="8"/>
+      <c r="AO49" s="8"/>
+      <c r="AP49" s="8"/>
+      <c r="BK49" s="3"/>
+      <c r="BL49" s="3"/>
     </row>
-    <row r="50" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="AJ50" s="9"/>
-      <c r="AK50" s="9"/>
-      <c r="AL50" s="9"/>
-      <c r="AM50" s="9"/>
-      <c r="AN50" s="9"/>
-      <c r="AO50" s="9"/>
-      <c r="AP50" s="9"/>
-      <c r="BK50" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="BL50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="BM50">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BN50">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BO50">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BP50">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BQ50">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR50">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BS50">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BT50">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BU50">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BV50">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+    <row r="50" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="AJ50" s="8"/>
+      <c r="AK50" s="8"/>
+      <c r="AL50" s="8"/>
+      <c r="AM50" s="8"/>
+      <c r="AN50" s="8"/>
+      <c r="AO50" s="8"/>
+      <c r="AP50" s="8"/>
+      <c r="BK50" s="3"/>
+      <c r="BL50" s="3"/>
     </row>
-    <row r="51" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="BK51" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="BL51" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="BM51">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BN51">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BO51">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BP51">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BQ51">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR51">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BS51">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BT51">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BU51">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BV51">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+    <row r="51" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BK51" s="3"/>
+      <c r="BL51" s="3"/>
     </row>
-    <row r="52" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="BK52" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="BL52" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="BM52">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BN52">
-        <f t="shared" si="12"/>
-        <v>56852.397967999801</v>
-      </c>
-      <c r="BO52">
-        <f t="shared" si="12"/>
-        <v>82838.396979101002</v>
-      </c>
-      <c r="BP52">
-        <f t="shared" si="13"/>
-        <v>206720.4102790989</v>
-      </c>
-      <c r="BQ52">
-        <f t="shared" si="13"/>
-        <v>274403.17952819914</v>
-      </c>
-      <c r="BR52">
-        <f t="shared" si="13"/>
-        <v>283292.48030960001</v>
-      </c>
-      <c r="BS52">
-        <f t="shared" si="14"/>
-        <v>243421.07402219996</v>
-      </c>
-      <c r="BT52">
-        <f t="shared" si="10"/>
-        <v>239949.13515320048</v>
-      </c>
-      <c r="BU52">
-        <f t="shared" si="10"/>
-        <v>291013.39628420025</v>
-      </c>
-      <c r="BV52">
-        <f t="shared" si="10"/>
-        <v>396613.85741510056</v>
-      </c>
+    <row r="52" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BK52" s="3"/>
+      <c r="BL52" s="3"/>
     </row>
-    <row r="53" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="BK53" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="BL53" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="BM53">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BN53">
-        <f t="shared" si="12"/>
-        <v>73465.139527000487</v>
-      </c>
-      <c r="BO53">
-        <f t="shared" si="12"/>
-        <v>101732.10186050087</v>
-      </c>
-      <c r="BP53">
-        <f t="shared" si="13"/>
-        <v>294047.93596829847</v>
-      </c>
-      <c r="BQ53">
-        <f t="shared" si="13"/>
-        <v>385648.35758709908</v>
-      </c>
-      <c r="BR53">
-        <f t="shared" si="13"/>
-        <v>400449.78015540168</v>
-      </c>
-      <c r="BS53">
-        <f t="shared" si="14"/>
-        <v>389601.34365409985</v>
-      </c>
-      <c r="BT53">
-        <f t="shared" si="10"/>
-        <v>410315.21293989941</v>
-      </c>
-      <c r="BU53">
-        <f t="shared" si="10"/>
-        <v>485565.2822258994</v>
-      </c>
-      <c r="BV53">
-        <f t="shared" si="10"/>
-        <v>615351.55151180178</v>
-      </c>
+    <row r="53" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BK53" s="3"/>
+      <c r="BL53" s="3"/>
     </row>
-    <row r="54" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="BK54" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="BL54" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="BM54">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BN54">
-        <f t="shared" si="12"/>
-        <v>36547.696278300136</v>
-      </c>
-      <c r="BO54">
-        <f t="shared" si="12"/>
-        <v>51217.521825697273</v>
-      </c>
-      <c r="BP54">
-        <f t="shared" si="13"/>
-        <v>221296.41244999692</v>
-      </c>
-      <c r="BQ54">
-        <f t="shared" si="13"/>
-        <v>317854.16415730119</v>
-      </c>
-      <c r="BR54">
-        <f t="shared" si="13"/>
-        <v>321562.72652669996</v>
-      </c>
-      <c r="BS54">
-        <f t="shared" si="14"/>
-        <v>244157.12883269787</v>
-      </c>
-      <c r="BT54">
-        <f t="shared" si="10"/>
-        <v>209406.69712459669</v>
-      </c>
-      <c r="BU54">
-        <f t="shared" si="10"/>
-        <v>229192.46541650221</v>
-      </c>
-      <c r="BV54">
-        <f t="shared" si="10"/>
-        <v>303514.43370839953</v>
-      </c>
+    <row r="54" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BK54" s="3"/>
+      <c r="BL54" s="3"/>
     </row>
-    <row r="55" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="BK55" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="BL55" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="BM55">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BN55">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BO55">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BP55">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BQ55">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR55">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BS55">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BT55">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BU55">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BV55">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+    <row r="55" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BK55" s="3"/>
+      <c r="BL55" s="3"/>
     </row>
-    <row r="56" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="BK56" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="BL56" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="BM56">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BN56">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BO56">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BP56">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BQ56">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR56">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BS56">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BT56">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BU56">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BV56">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+    <row r="56" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BK56" s="3"/>
+      <c r="BL56" s="3"/>
     </row>
-    <row r="57" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="BK57" s="4" t="s">
+    <row r="57" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BK57" s="3"/>
+      <c r="BL57" s="3"/>
+    </row>
+    <row r="58" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BK58" s="3"/>
+      <c r="BL58" s="3"/>
+    </row>
+    <row r="59" spans="1:64" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18"/>
+      <c r="R59" s="18"/>
+      <c r="S59" s="18"/>
+      <c r="T59" s="18"/>
+      <c r="U59" s="18"/>
+      <c r="V59" s="18"/>
+      <c r="W59" s="18"/>
+      <c r="X59" s="18"/>
+      <c r="Y59" s="18"/>
+      <c r="Z59" s="18"/>
+      <c r="AA59" s="18"/>
+      <c r="AB59" s="18"/>
+      <c r="AC59" s="18"/>
+      <c r="AD59" s="18"/>
+      <c r="AE59" s="18"/>
+      <c r="AF59" s="18"/>
+      <c r="AG59" s="18"/>
+      <c r="AH59" s="18"/>
+      <c r="AI59" s="18"/>
+      <c r="AJ59" s="18"/>
+      <c r="AK59" s="18"/>
+      <c r="AL59" s="18"/>
+      <c r="AM59" s="18"/>
+      <c r="AN59" s="18"/>
+      <c r="AO59" s="18"/>
+      <c r="AP59" s="18"/>
+      <c r="AQ59" s="18"/>
+      <c r="AR59" s="18"/>
+      <c r="AS59" s="18"/>
+      <c r="AT59" s="18"/>
+      <c r="AU59" s="18"/>
+      <c r="AV59" s="18"/>
+      <c r="BK59" s="3"/>
+      <c r="BL59" s="3"/>
+    </row>
+    <row r="60" spans="1:64" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="BL57" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="BM57">
-        <f t="shared" si="11"/>
-        <v>15774861.2803644</v>
-      </c>
-      <c r="BN57">
-        <f t="shared" si="12"/>
-        <v>15902832.163747201</v>
-      </c>
-      <c r="BO57">
-        <f t="shared" si="12"/>
-        <v>15935459.2912196</v>
-      </c>
-      <c r="BP57">
-        <f t="shared" si="13"/>
-        <v>15974704.345141601</v>
-      </c>
-      <c r="BQ57">
-        <f t="shared" si="13"/>
-        <v>15954045.025612701</v>
-      </c>
-      <c r="BR57">
-        <f t="shared" si="13"/>
-        <v>15918260.824723801</v>
-      </c>
-      <c r="BS57">
-        <f t="shared" si="14"/>
-        <v>15739339.8202793</v>
-      </c>
-      <c r="BT57">
-        <f t="shared" si="10"/>
-        <v>15560418.8158349</v>
-      </c>
-      <c r="BU57">
-        <f t="shared" si="10"/>
-        <v>15381497.8113904</v>
-      </c>
-      <c r="BV57">
-        <f t="shared" si="10"/>
-        <v>15202576.806946</v>
-      </c>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="21"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="21"/>
+      <c r="T60" s="21"/>
+      <c r="U60" s="21"/>
+      <c r="V60" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="W60" s="22"/>
+      <c r="X60" s="22"/>
+      <c r="Y60" s="22"/>
+      <c r="Z60" s="22"/>
+      <c r="AA60" s="22"/>
+      <c r="AB60" s="22"/>
+      <c r="BK60" s="3"/>
+      <c r="BL60" s="3"/>
     </row>
-    <row r="58" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="BK58" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="BL58" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="BM58">
-        <f t="shared" si="11"/>
-        <v>18160832.902933899</v>
-      </c>
-      <c r="BN58">
-        <f t="shared" si="12"/>
-        <v>18264804.954667199</v>
-      </c>
-      <c r="BO58">
-        <f t="shared" si="12"/>
-        <v>18263990.428533901</v>
-      </c>
-      <c r="BP58">
-        <f t="shared" si="13"/>
-        <v>18263175.902400501</v>
-      </c>
-      <c r="BQ58">
-        <f t="shared" si="13"/>
-        <v>18227391.701511599</v>
-      </c>
-      <c r="BR58">
-        <f t="shared" si="13"/>
-        <v>18191607.500622801</v>
-      </c>
-      <c r="BS58">
-        <f t="shared" si="14"/>
-        <v>18012686.496178299</v>
-      </c>
-      <c r="BT58">
-        <f t="shared" si="10"/>
-        <v>17833765.491733901</v>
-      </c>
-      <c r="BU58">
-        <f t="shared" si="10"/>
-        <v>17654844.487289399</v>
-      </c>
-      <c r="BV58">
-        <f t="shared" si="10"/>
-        <v>17475923.482845001</v>
-      </c>
+    <row r="61" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61" t="s">
+        <v>32</v>
+      </c>
+      <c r="J61" t="s">
+        <v>30</v>
+      </c>
+      <c r="K61" t="s">
+        <v>31</v>
+      </c>
+      <c r="L61" t="s">
+        <v>32</v>
+      </c>
+      <c r="X61" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK61" s="3"/>
+      <c r="BL61" s="3"/>
     </row>
-    <row r="59" spans="1:74" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="13"/>
-      <c r="Q59" s="13"/>
-      <c r="R59" s="13"/>
-      <c r="S59" s="13"/>
-      <c r="T59" s="13"/>
-      <c r="U59" s="13"/>
-      <c r="V59" s="13"/>
-      <c r="W59" s="13"/>
-      <c r="X59" s="13"/>
-      <c r="Y59" s="13"/>
-      <c r="Z59" s="13"/>
-      <c r="AA59" s="13"/>
-      <c r="AB59" s="13"/>
-      <c r="AC59" s="13"/>
-      <c r="AD59" s="13"/>
-      <c r="AE59" s="13"/>
-      <c r="AF59" s="13"/>
-      <c r="AG59" s="13"/>
-      <c r="AH59" s="13"/>
-      <c r="AI59" s="13"/>
-      <c r="AJ59" s="13"/>
-      <c r="AK59" s="13"/>
-      <c r="AL59" s="13"/>
-      <c r="AM59" s="13"/>
-      <c r="AN59" s="13"/>
-      <c r="AO59" s="13"/>
-      <c r="AP59" s="13"/>
-      <c r="AQ59" s="13"/>
-      <c r="AR59" s="13"/>
-      <c r="AS59" s="13"/>
-      <c r="AT59" s="13"/>
-      <c r="AU59" s="13"/>
-      <c r="AV59" s="13"/>
-      <c r="BK59" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="BL59" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="BM59">
-        <f t="shared" si="11"/>
-        <v>20647252.408292402</v>
-      </c>
-      <c r="BN59">
-        <f t="shared" si="12"/>
-        <v>20751224.460025799</v>
-      </c>
-      <c r="BO59">
-        <f t="shared" si="12"/>
-        <v>20750409.933892399</v>
-      </c>
-      <c r="BP59">
-        <f t="shared" si="13"/>
-        <v>20749595.4077591</v>
-      </c>
-      <c r="BQ59">
-        <f t="shared" si="13"/>
-        <v>20713811.206870198</v>
-      </c>
-      <c r="BR59">
-        <f t="shared" si="13"/>
-        <v>20678027.0059813</v>
-      </c>
-      <c r="BS59">
-        <f t="shared" si="14"/>
-        <v>20499106.001536898</v>
-      </c>
-      <c r="BT59">
-        <f t="shared" si="10"/>
-        <v>20320184.9970924</v>
-      </c>
-      <c r="BU59">
-        <f t="shared" si="10"/>
-        <v>20141263.992648002</v>
-      </c>
-      <c r="BV59">
-        <f t="shared" si="10"/>
-        <v>19962342.988203499</v>
-      </c>
-    </row>
-    <row r="60" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
+    <row r="62" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="15" t="s">
+      <c r="B62" t="s">
         <v>22</v>
-      </c>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="16"/>
-      <c r="S60" s="16"/>
-      <c r="T60" s="16"/>
-      <c r="U60" s="16"/>
-      <c r="V60" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="W60" s="17"/>
-      <c r="X60" s="17"/>
-      <c r="Y60" s="17"/>
-      <c r="Z60" s="17"/>
-      <c r="AA60" s="17"/>
-      <c r="AB60" s="17"/>
-      <c r="BK60" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="BL60" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="BM60">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BN60">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BO60">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BP60">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BQ60">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR60">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BS60">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BT60">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BU60">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BV60">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
-        <v>38</v>
-      </c>
-      <c r="D61" t="s">
-        <v>39</v>
-      </c>
-      <c r="E61" t="s">
-        <v>40</v>
-      </c>
-      <c r="J61" t="s">
-        <v>38</v>
-      </c>
-      <c r="K61" t="s">
-        <v>39</v>
-      </c>
-      <c r="L61" t="s">
-        <v>40</v>
-      </c>
-      <c r="X61" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>25</v>
-      </c>
-      <c r="BK61" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="BL61" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="BM61">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BN61">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BO61">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BP61">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BQ61">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR61">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BS61">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BT61">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BU61">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="BV61">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>26</v>
-      </c>
-      <c r="B62" t="s">
-        <v>27</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
@@ -10085,10 +7126,10 @@
         <v>15</v>
       </c>
       <c r="H62" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I62" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J62" t="s">
         <v>13</v>
@@ -10100,10 +7141,10 @@
         <v>15</v>
       </c>
       <c r="V62" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="W62" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="X62" t="s">
         <v>13</v>
@@ -10114,54 +7155,10 @@
       <c r="Z62" t="s">
         <v>15</v>
       </c>
-      <c r="BK62" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="BL62" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="BM62">
-        <f t="shared" si="11"/>
-        <v>15774861.2803644</v>
-      </c>
-      <c r="BN62">
-        <f t="shared" si="12"/>
-        <v>15888989.7308241</v>
-      </c>
-      <c r="BO62">
-        <f t="shared" si="12"/>
-        <v>15916422.5167196</v>
-      </c>
-      <c r="BP62">
-        <f t="shared" si="13"/>
-        <v>15949757.3771416</v>
-      </c>
-      <c r="BQ62">
-        <f t="shared" si="13"/>
-        <v>15943576.4528127</v>
-      </c>
-      <c r="BR62">
-        <f t="shared" si="13"/>
-        <v>15908290.7553904</v>
-      </c>
-      <c r="BS62">
-        <f t="shared" si="14"/>
-        <v>15731862.268279299</v>
-      </c>
-      <c r="BT62">
-        <f t="shared" si="10"/>
-        <v>15555433.7811682</v>
-      </c>
-      <c r="BU62">
-        <f t="shared" si="10"/>
-        <v>15379005.294057099</v>
-      </c>
-      <c r="BV62">
-        <f t="shared" si="10"/>
-        <v>15202576.806946</v>
-      </c>
+      <c r="BK62" s="3"/>
+      <c r="BL62" s="3"/>
     </row>
-    <row r="63" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -10209,61 +7206,17 @@
         <v>15.7748612803644</v>
       </c>
       <c r="Y63">
-        <f t="shared" ref="Y63:Z74" si="15">K63</f>
+        <f t="shared" ref="Y63:Z74" si="10">K63</f>
         <v>18.160832902933901</v>
       </c>
       <c r="Z63">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>20.647252408292402</v>
       </c>
-      <c r="BK63" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="BL63" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="BM63">
-        <f t="shared" si="11"/>
-        <v>18160832.902933899</v>
-      </c>
-      <c r="BN63">
-        <f t="shared" si="12"/>
-        <v>18256807.1045339</v>
-      </c>
-      <c r="BO63">
-        <f t="shared" si="12"/>
-        <v>18254507.965333901</v>
-      </c>
-      <c r="BP63">
-        <f t="shared" si="13"/>
-        <v>18252208.826133899</v>
-      </c>
-      <c r="BQ63">
-        <f t="shared" si="13"/>
-        <v>18216923.1287116</v>
-      </c>
-      <c r="BR63">
-        <f t="shared" si="13"/>
-        <v>18181637.431289401</v>
-      </c>
-      <c r="BS63">
-        <f t="shared" si="14"/>
-        <v>18005208.944178302</v>
-      </c>
-      <c r="BT63">
-        <f t="shared" si="14"/>
-        <v>17828780.457067199</v>
-      </c>
-      <c r="BU63">
-        <f t="shared" si="14"/>
-        <v>17652351.9699561</v>
-      </c>
-      <c r="BV63">
-        <f t="shared" si="14"/>
-        <v>17475923.482845001</v>
-      </c>
+      <c r="BK63" s="3"/>
+      <c r="BL63" s="3"/>
     </row>
-    <row r="64" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1</v>
       </c>
@@ -10307,65 +7260,21 @@
         <v>1</v>
       </c>
       <c r="X64">
-        <f t="shared" ref="X64:X74" si="16">J64</f>
+        <f t="shared" ref="X64:X74" si="11">J64</f>
         <v>15.8598221987023</v>
       </c>
       <c r="Y64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>18.1993376652735</v>
       </c>
       <c r="Z64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>20.722674613880798</v>
       </c>
-      <c r="BK64" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="BL64" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="BM64">
-        <f t="shared" si="11"/>
-        <v>20647252.408292402</v>
-      </c>
-      <c r="BN64">
-        <f t="shared" si="12"/>
-        <v>20743226.609892402</v>
-      </c>
-      <c r="BO64">
-        <f t="shared" si="12"/>
-        <v>20740927.4706924</v>
-      </c>
-      <c r="BP64">
-        <f t="shared" si="13"/>
-        <v>20738628.331492402</v>
-      </c>
-      <c r="BQ64">
-        <f t="shared" si="13"/>
-        <v>20703342.634070199</v>
-      </c>
-      <c r="BR64">
-        <f t="shared" si="13"/>
-        <v>20668056.936648</v>
-      </c>
-      <c r="BS64">
-        <f t="shared" si="14"/>
-        <v>20491628.449536901</v>
-      </c>
-      <c r="BT64">
-        <f t="shared" si="14"/>
-        <v>20315199.962425798</v>
-      </c>
-      <c r="BU64">
-        <f t="shared" si="14"/>
-        <v>20138771.475314599</v>
-      </c>
-      <c r="BV64">
-        <f>AV21-AV95</f>
-        <v>19962342.988203499</v>
-      </c>
+      <c r="BK64" s="3"/>
+      <c r="BL64" s="3"/>
     </row>
-    <row r="65" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -10409,65 +7318,21 @@
         <v>2</v>
       </c>
       <c r="X65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>15.8716576687405</v>
       </c>
       <c r="Y65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>18.1717407898734</v>
       </c>
       <c r="Z65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>20.708674875266702</v>
       </c>
-      <c r="BK65" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="BL65" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="BM65">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BN65">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BO65">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BP65">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BQ65">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR65">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BS65">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BT65">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BU65">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BV65">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
+      <c r="BK65" s="3"/>
+      <c r="BL65" s="3"/>
     </row>
-    <row r="66" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>3</v>
       </c>
@@ -10511,65 +7376,21 @@
         <v>4</v>
       </c>
       <c r="X66">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>15.901653461366999</v>
       </c>
       <c r="Y66">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>18.130184952673201</v>
       </c>
       <c r="Z66">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>20.694313311638602</v>
       </c>
-      <c r="BK66" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="BL66" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="BM66">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BN66">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BO66">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BP66">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BQ66">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BR66">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BS66">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BT66">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BU66">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BV66">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
+      <c r="BK66" s="3"/>
+      <c r="BL66" s="3"/>
     </row>
-    <row r="67" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -10613,19 +7434,19 @@
         <v>6</v>
       </c>
       <c r="X67">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>15.7929309028625</v>
       </c>
       <c r="Y67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>17.980095042698903</v>
       </c>
       <c r="Z67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>20.539266071575803</v>
       </c>
     </row>
-    <row r="68" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -10669,19 +7490,19 @@
         <v>8</v>
       </c>
       <c r="X68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>15.690110418884501</v>
       </c>
       <c r="Y68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>17.852211916724499</v>
       </c>
       <c r="Z68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>20.406425615512902</v>
       </c>
     </row>
-    <row r="69" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -10725,19 +7546,19 @@
         <v>9</v>
       </c>
       <c r="X69">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>15.6449384137475</v>
       </c>
       <c r="Y69">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>17.801127789800699</v>
       </c>
       <c r="Z69">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>20.366434348787902</v>
       </c>
     </row>
-    <row r="70" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -10781,19 +7602,19 @@
         <v>10</v>
       </c>
       <c r="X70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>15.6268016811658</v>
       </c>
       <c r="Y70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>17.778153895587899</v>
       </c>
       <c r="Z70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>20.354553314773899</v>
       </c>
     </row>
-    <row r="71" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -10837,19 +7658,19 @@
         <v>15</v>
       </c>
       <c r="X71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>15.503396298257099</v>
       </c>
       <c r="Y71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>17.630562704524202</v>
       </c>
       <c r="Z71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>20.262426424704202</v>
       </c>
     </row>
-    <row r="72" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -10893,19 +7714,19 @@
         <v>20</v>
       </c>
       <c r="X72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>15.3254547153484</v>
       </c>
       <c r="Y72">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>17.4284353134606</v>
       </c>
       <c r="Z72">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>20.115763334634501</v>
       </c>
     </row>
-    <row r="73" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -10949,19 +7770,19 @@
         <v>25</v>
       </c>
       <c r="X73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>15.092976932439599</v>
       </c>
       <c r="Y73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>17.171771722396898</v>
       </c>
       <c r="Z73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>19.914564044564798</v>
       </c>
     </row>
-    <row r="74" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -11002,76 +7823,96 @@
         <v>11</v>
       </c>
       <c r="W74">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X74">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>14.805962949530899</v>
       </c>
       <c r="Y74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>16.860571931333197</v>
       </c>
       <c r="Z74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>19.658828554495098</v>
       </c>
     </row>
-    <row r="76" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AI76" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ76" s="10"/>
-      <c r="AK76" s="10"/>
-      <c r="AL76" s="10"/>
-      <c r="AM76" s="10"/>
-      <c r="AN76" s="10"/>
-      <c r="AO76" s="10"/>
-      <c r="AP76" s="10"/>
-      <c r="AQ76" s="10"/>
-      <c r="AR76" s="10"/>
-      <c r="AS76" s="10"/>
-      <c r="AT76" s="10"/>
-      <c r="AU76" s="10"/>
-      <c r="AV76" s="10"/>
-      <c r="BH76" t="s">
+    <row r="75" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="BF75" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG75" s="25"/>
+      <c r="BH75" s="25"/>
+      <c r="BI75" s="25"/>
+      <c r="BJ75" s="25"/>
+      <c r="BK75" s="25"/>
+      <c r="BL75" s="25"/>
+      <c r="BM75" s="25"/>
+      <c r="BN75" s="25"/>
+      <c r="BO75" s="25"/>
+      <c r="BP75" s="25"/>
+      <c r="BQ75" s="25"/>
+      <c r="BR75" s="25"/>
+      <c r="BS75" s="25"/>
+    </row>
+    <row r="76" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AI76" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ76" s="16"/>
+      <c r="AK76" s="16"/>
+      <c r="AL76" s="16"/>
+      <c r="AM76" s="16"/>
+      <c r="AN76" s="16"/>
+      <c r="AO76" s="16"/>
+      <c r="AP76" s="16"/>
+      <c r="AQ76" s="16"/>
+      <c r="AR76" s="16"/>
+      <c r="AS76" s="16"/>
+      <c r="AT76" s="16"/>
+      <c r="AU76" s="16"/>
+      <c r="AV76" s="16"/>
+      <c r="BF76" s="23"/>
+      <c r="BG76" s="23"/>
+      <c r="BH76" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="BI76" t="s">
+      <c r="BI76" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="BJ76" t="s">
+      <c r="BJ76" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="BK76" t="s">
+      <c r="BK76" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="BL76" t="s">
+      <c r="BL76" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="BM76" t="s">
+      <c r="BM76" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="BN76" t="s">
+      <c r="BN76" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="BO76" t="s">
+      <c r="BO76" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="BP76" t="s">
+      <c r="BP76" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="BQ76" t="s">
+      <c r="BQ76" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="BR76" t="s">
+      <c r="BR76" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="BS76" t="s">
+      <c r="BS76" s="23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:71" x14ac:dyDescent="0.25">
       <c r="AK77" t="s">
         <v>0</v>
       </c>
@@ -11108,50 +7949,50 @@
       <c r="AV77" t="s">
         <v>11</v>
       </c>
-      <c r="BF77" t="s">
+      <c r="BF77" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BG77" t="s">
+      <c r="BG77" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="BH77">
+      <c r="BH77" s="23">
         <v>15774861.2803644</v>
       </c>
-      <c r="BI77">
+      <c r="BI77" s="23">
         <v>15849502.799805701</v>
       </c>
-      <c r="BJ77">
+      <c r="BJ77" s="23">
         <v>15851905.332169101</v>
       </c>
-      <c r="BK77">
+      <c r="BK77" s="23">
         <v>15866103.769059399</v>
       </c>
-      <c r="BL77">
+      <c r="BL77" s="23">
         <v>15722641.6168625</v>
       </c>
-      <c r="BM77">
+      <c r="BM77" s="23">
         <v>15586954.5651737</v>
       </c>
-      <c r="BN77">
+      <c r="BN77" s="23">
         <v>15522540.160147499</v>
       </c>
-      <c r="BO77">
+      <c r="BO77" s="23">
         <v>15488417.4358324</v>
       </c>
-      <c r="BP77">
+      <c r="BP77" s="23">
         <v>15317803.8142571</v>
       </c>
-      <c r="BQ77">
+      <c r="BQ77" s="23">
         <v>15147190.1926817</v>
       </c>
-      <c r="BR77">
+      <c r="BR77" s="23">
         <v>14976576.5711063</v>
       </c>
-      <c r="BS77">
+      <c r="BS77" s="23">
         <v>14805962.9495309</v>
       </c>
     </row>
-    <row r="78" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:71" x14ac:dyDescent="0.25">
       <c r="AI78" t="s">
         <v>12</v>
       </c>
@@ -11163,93 +8004,93 @@
         <v>15774861.2803644</v>
       </c>
       <c r="AL78">
-        <f t="shared" ref="AL78:AV80" si="17">BI77</f>
+        <f t="shared" ref="AL78:AV80" si="12">BI77</f>
         <v>15849502.799805701</v>
       </c>
       <c r="AM78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>15851905.332169101</v>
       </c>
       <c r="AN78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>15866103.769059399</v>
       </c>
       <c r="AO78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>15722641.6168625</v>
       </c>
       <c r="AP78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>15586954.5651737</v>
       </c>
       <c r="AQ78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>15522540.160147499</v>
       </c>
       <c r="AR78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>15488417.4358324</v>
       </c>
       <c r="AS78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>15317803.8142571</v>
       </c>
       <c r="AT78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>15147190.1926817</v>
       </c>
       <c r="AU78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>14976576.5711063</v>
       </c>
       <c r="AV78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>14805962.9495309</v>
       </c>
-      <c r="BF78" t="s">
+      <c r="BF78" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BG78" t="s">
+      <c r="BG78" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="BH78">
+      <c r="BH78" s="23">
         <v>18160832.902933899</v>
       </c>
-      <c r="BI78">
+      <c r="BI78" s="23">
         <v>18185363.321273498</v>
       </c>
-      <c r="BJ78">
+      <c r="BJ78" s="23">
         <v>18145307.425606702</v>
       </c>
-      <c r="BK78">
+      <c r="BK78" s="23">
         <v>18083379.519073199</v>
       </c>
-      <c r="BL78">
+      <c r="BL78" s="23">
         <v>17900875.788298901</v>
       </c>
-      <c r="BM78">
+      <c r="BM78" s="23">
         <v>17747981.102857899</v>
       </c>
-      <c r="BN78">
+      <c r="BN78" s="23">
         <v>17678729.536200698</v>
       </c>
-      <c r="BO78">
+      <c r="BO78" s="23">
         <v>17639769.6502546</v>
       </c>
-      <c r="BP78">
+      <c r="BP78" s="23">
         <v>17444970.220524199</v>
       </c>
-      <c r="BQ78">
+      <c r="BQ78" s="23">
         <v>17250170.790793899</v>
       </c>
-      <c r="BR78">
+      <c r="BR78" s="23">
         <v>17055371.361063499</v>
       </c>
-      <c r="BS78">
+      <c r="BS78" s="23">
         <v>16860571.931333199</v>
       </c>
     </row>
-    <row r="79" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:71" x14ac:dyDescent="0.25">
       <c r="AI79" t="s">
         <v>12</v>
       </c>
@@ -11257,97 +8098,97 @@
         <v>14</v>
       </c>
       <c r="AK79">
-        <f t="shared" ref="AK79:AK80" si="18">BH78</f>
+        <f t="shared" ref="AK79:AK80" si="13">BH78</f>
         <v>18160832.902933899</v>
       </c>
       <c r="AL79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>18185363.321273498</v>
       </c>
       <c r="AM79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>18145307.425606702</v>
       </c>
       <c r="AN79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>18083379.519073199</v>
       </c>
       <c r="AO79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>17900875.788298901</v>
       </c>
       <c r="AP79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>17747981.102857899</v>
       </c>
       <c r="AQ79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>17678729.536200698</v>
       </c>
       <c r="AR79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>17639769.6502546</v>
       </c>
       <c r="AS79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>17444970.220524199</v>
       </c>
       <c r="AT79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>17250170.790793899</v>
       </c>
       <c r="AU79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>17055371.361063499</v>
       </c>
       <c r="AV79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>16860571.931333199</v>
       </c>
-      <c r="BF79" t="s">
+      <c r="BF79" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="BG79" t="s">
+      <c r="BG79" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="BH79">
+      <c r="BH79" s="23">
         <v>20647252.408292402</v>
       </c>
-      <c r="BI79">
+      <c r="BI79" s="23">
         <v>20708700.269880801</v>
       </c>
-      <c r="BJ79">
+      <c r="BJ79" s="23">
         <v>20682241.511</v>
       </c>
-      <c r="BK79">
+      <c r="BK79" s="23">
         <v>20647507.8780386</v>
       </c>
-      <c r="BL79">
+      <c r="BL79" s="23">
         <v>20460046.817175802</v>
       </c>
-      <c r="BM79">
+      <c r="BM79" s="23">
         <v>20302194.8016463</v>
       </c>
-      <c r="BN79">
+      <c r="BN79" s="23">
         <v>20244036.095187899</v>
       </c>
-      <c r="BO79">
+      <c r="BO79" s="23">
         <v>20216169.0694406</v>
       </c>
-      <c r="BP79">
+      <c r="BP79" s="23">
         <v>20076833.9407042</v>
       </c>
-      <c r="BQ79">
+      <c r="BQ79" s="23">
         <v>19937498.811967801</v>
       </c>
-      <c r="BR79">
+      <c r="BR79" s="23">
         <v>19798163.683231499</v>
       </c>
-      <c r="BS79">
+      <c r="BS79" s="23">
         <v>19658828.5544951</v>
       </c>
     </row>
-    <row r="80" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:71" x14ac:dyDescent="0.25">
       <c r="AI80" t="s">
         <v>12</v>
       </c>
@@ -11355,187 +8196,187 @@
         <v>15</v>
       </c>
       <c r="AK80">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>20647252.408292402</v>
       </c>
       <c r="AL80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>20708700.269880801</v>
       </c>
       <c r="AM80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>20682241.511</v>
       </c>
       <c r="AN80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>20647507.8780386</v>
       </c>
       <c r="AO80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>20460046.817175802</v>
       </c>
       <c r="AP80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>20302194.8016463</v>
       </c>
       <c r="AQ80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>20244036.095187899</v>
       </c>
       <c r="AR80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>20216169.0694406</v>
       </c>
       <c r="AS80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>20076833.9407042</v>
       </c>
       <c r="AT80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>19937498.811967801</v>
       </c>
       <c r="AU80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>19798163.683231499</v>
       </c>
       <c r="AV80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>19658828.5544951</v>
       </c>
-      <c r="BF80" t="s">
-        <v>18</v>
-      </c>
-      <c r="BG80" t="s">
+      <c r="BF80" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="BG80" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="BH80">
+      <c r="BH80" s="23">
         <v>15774861.2803644</v>
       </c>
-      <c r="BI80">
+      <c r="BI80" s="23">
         <v>15854662.499253999</v>
       </c>
-      <c r="BJ80">
+      <c r="BJ80" s="23">
         <v>15861781.5004548</v>
       </c>
-      <c r="BK80">
+      <c r="BK80" s="23">
         <v>15883878.6152132</v>
       </c>
-      <c r="BL80">
+      <c r="BL80" s="23">
         <v>15757786.259862499</v>
       </c>
-      <c r="BM80">
+      <c r="BM80" s="23">
         <v>15639027.682884499</v>
       </c>
-      <c r="BN80">
+      <c r="BN80" s="23">
         <v>15583739.2869475</v>
       </c>
-      <c r="BO80">
+      <c r="BO80" s="23">
         <v>15557609.5584991</v>
       </c>
-      <c r="BP80">
+      <c r="BP80" s="23">
         <v>15410600.056257101</v>
       </c>
-      <c r="BQ80">
+      <c r="BQ80" s="23">
         <v>15236322.454015</v>
       </c>
-      <c r="BR80">
+      <c r="BR80" s="23">
         <v>15034776.751773</v>
       </c>
-      <c r="BS80">
+      <c r="BS80" s="23">
         <v>14805962.9495309</v>
       </c>
     </row>
     <row r="81" spans="35:71" x14ac:dyDescent="0.25">
-      <c r="BF81" t="s">
-        <v>18</v>
-      </c>
-      <c r="BG81" t="s">
+      <c r="BF81" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="BG81" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="BH81">
+      <c r="BH81" s="23">
         <v>18160832.902933899</v>
       </c>
-      <c r="BI81">
+      <c r="BI81" s="23">
         <v>18192350.4932735</v>
       </c>
-      <c r="BJ81">
+      <c r="BJ81" s="23">
         <v>18158524.1077401</v>
       </c>
-      <c r="BK81">
+      <c r="BK81" s="23">
         <v>18106782.2358732</v>
       </c>
-      <c r="BL81">
+      <c r="BL81" s="23">
         <v>17940485.415498901</v>
       </c>
-      <c r="BM81">
+      <c r="BM81" s="23">
         <v>17800096.509791199</v>
       </c>
-      <c r="BN81">
+      <c r="BN81" s="23">
         <v>17739928.663000699</v>
       </c>
-      <c r="BO81">
+      <c r="BO81" s="23">
         <v>17708961.772921301</v>
       </c>
-      <c r="BP81">
+      <c r="BP81" s="23">
         <v>17537766.462524202</v>
       </c>
-      <c r="BQ81">
+      <c r="BQ81" s="23">
         <v>17339303.052127201</v>
       </c>
-      <c r="BR81">
+      <c r="BR81" s="23">
         <v>17113571.541730199</v>
       </c>
-      <c r="BS81">
+      <c r="BS81" s="23">
         <v>16860571.931333199</v>
       </c>
     </row>
     <row r="82" spans="35:71" x14ac:dyDescent="0.25">
-      <c r="BF82" t="s">
-        <v>18</v>
-      </c>
-      <c r="BG82" t="s">
+      <c r="BF82" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="BG82" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="BH82">
+      <c r="BH82" s="23">
         <v>20647252.408292402</v>
       </c>
-      <c r="BI82">
+      <c r="BI82" s="23">
         <v>20715687.4418808</v>
       </c>
-      <c r="BJ82">
+      <c r="BJ82" s="23">
         <v>20695458.193133399</v>
       </c>
-      <c r="BK82">
+      <c r="BK82" s="23">
         <v>20670910.594838601</v>
       </c>
-      <c r="BL82">
+      <c r="BL82" s="23">
         <v>20499656.444375802</v>
       </c>
-      <c r="BM82">
+      <c r="BM82" s="23">
         <v>20354310.2085796</v>
       </c>
-      <c r="BN82">
+      <c r="BN82" s="23">
         <v>20305235.221987899</v>
       </c>
-      <c r="BO82">
+      <c r="BO82" s="23">
         <v>20285361.192107301</v>
       </c>
-      <c r="BP82">
+      <c r="BP82" s="23">
         <v>20169630.182704199</v>
       </c>
-      <c r="BQ82">
+      <c r="BQ82" s="23">
         <v>20026631.0733012</v>
       </c>
-      <c r="BR82">
+      <c r="BR82" s="23">
         <v>19856363.863898098</v>
       </c>
-      <c r="BS82">
+      <c r="BS82" s="23">
         <v>19658828.5544951</v>
       </c>
     </row>
     <row r="83" spans="35:71" x14ac:dyDescent="0.25">
       <c r="AI83" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ83" t="s">
         <v>13</v>
@@ -11545,423 +8386,423 @@
         <v>15774861.2803644</v>
       </c>
       <c r="AL83">
-        <f t="shared" ref="AL83:AV85" si="19">BI86</f>
+        <f t="shared" ref="AL83:AV85" si="14">BI86</f>
         <v>15859822.1987023</v>
       </c>
       <c r="AM83">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>15871657.6687405</v>
       </c>
       <c r="AN83">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>15901653.461367</v>
       </c>
       <c r="AO83">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>15792930.9028625</v>
       </c>
       <c r="AP83">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>15690110.418884501</v>
       </c>
       <c r="AQ83">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>15644938.413747501</v>
       </c>
       <c r="AR83">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>15626801.681165799</v>
       </c>
       <c r="AS83">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>15503396.298257099</v>
       </c>
       <c r="AT83">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>15325454.7153484</v>
       </c>
       <c r="AU83">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>15092976.932439599</v>
       </c>
       <c r="AV83">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>14805962.9495309</v>
       </c>
-      <c r="BF83" t="s">
-        <v>19</v>
-      </c>
-      <c r="BG83" t="s">
+      <c r="BF83" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="BG83" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="BH83">
+      <c r="BH83" s="23">
         <v>15774861.2803644</v>
       </c>
-      <c r="BI83">
+      <c r="BI83" s="23">
         <v>15857242.348978201</v>
       </c>
-      <c r="BJ83">
+      <c r="BJ83" s="23">
         <v>15866719.584597699</v>
       </c>
-      <c r="BK83">
+      <c r="BK83" s="23">
         <v>15892766.0382901</v>
       </c>
-      <c r="BL83">
+      <c r="BL83" s="23">
         <v>15775358.581362501</v>
       </c>
-      <c r="BM83">
+      <c r="BM83" s="23">
         <v>15664569.0508845</v>
       </c>
-      <c r="BN83">
+      <c r="BN83" s="23">
         <v>15614338.8503475</v>
       </c>
-      <c r="BO83">
+      <c r="BO83" s="23">
         <v>15592205.6198324</v>
       </c>
-      <c r="BP83">
+      <c r="BP83" s="23">
         <v>15456998.1772571</v>
       </c>
-      <c r="BQ83">
+      <c r="BQ83" s="23">
         <v>15280888.584681701</v>
       </c>
-      <c r="BR83">
+      <c r="BR83" s="23">
         <v>15063876.842106299</v>
       </c>
-      <c r="BS83">
+      <c r="BS83" s="23">
         <v>14805962.9495309</v>
       </c>
     </row>
     <row r="84" spans="35:71" x14ac:dyDescent="0.25">
       <c r="AI84" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ84" t="s">
         <v>14</v>
       </c>
       <c r="AK84">
-        <f t="shared" ref="AK84:AK85" si="20">BH87</f>
+        <f t="shared" ref="AK84:AK85" si="15">BH87</f>
         <v>18160832.902933899</v>
       </c>
       <c r="AL84">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>18199337.665273499</v>
       </c>
       <c r="AM84">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>18171740.789873399</v>
       </c>
       <c r="AN84">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>18130184.952673201</v>
       </c>
       <c r="AO84">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>17980095.042698901</v>
       </c>
       <c r="AP84">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>17852211.916724499</v>
       </c>
       <c r="AQ84">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>17801127.7898007</v>
       </c>
       <c r="AR84">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>17778153.895587899</v>
       </c>
       <c r="AS84">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>17630562.7045242</v>
       </c>
       <c r="AT84">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>17428435.3134606</v>
       </c>
       <c r="AU84">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>17171771.722396899</v>
       </c>
       <c r="AV84">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>16860571.931333199</v>
       </c>
-      <c r="BF84" t="s">
-        <v>19</v>
-      </c>
-      <c r="BG84" t="s">
+      <c r="BF84" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="BG84" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="BH84">
+      <c r="BH84" s="23">
         <v>18160832.902933899</v>
       </c>
-      <c r="BI84">
+      <c r="BI84" s="23">
         <v>18195844.0792735</v>
       </c>
-      <c r="BJ84">
+      <c r="BJ84" s="23">
         <v>18165132.448806699</v>
       </c>
-      <c r="BK84">
+      <c r="BK84" s="23">
         <v>18118483.594273198</v>
       </c>
-      <c r="BL84">
+      <c r="BL84" s="23">
         <v>17960290.229098901</v>
       </c>
-      <c r="BM84">
+      <c r="BM84" s="23">
         <v>17826154.213257901</v>
       </c>
-      <c r="BN84">
+      <c r="BN84" s="23">
         <v>17770528.226400699</v>
       </c>
-      <c r="BO84">
+      <c r="BO84" s="23">
         <v>17743557.8342546</v>
       </c>
-      <c r="BP84">
+      <c r="BP84" s="23">
         <v>17584164.583524201</v>
       </c>
-      <c r="BQ84">
+      <c r="BQ84" s="23">
         <v>17383869.1827939</v>
       </c>
-      <c r="BR84">
+      <c r="BR84" s="23">
         <v>17142671.632063501</v>
       </c>
-      <c r="BS84">
+      <c r="BS84" s="23">
         <v>16860571.931333199</v>
       </c>
     </row>
     <row r="85" spans="35:71" x14ac:dyDescent="0.25">
       <c r="AI85" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ85" t="s">
         <v>15</v>
       </c>
       <c r="AK85">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>20647252.408292402</v>
       </c>
       <c r="AL85">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>20722674.613880798</v>
       </c>
       <c r="AM85">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>20708674.875266701</v>
       </c>
       <c r="AN85">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>20694313.311638601</v>
       </c>
       <c r="AO85">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>20539266.071575802</v>
       </c>
       <c r="AP85">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>20406425.6155129</v>
       </c>
       <c r="AQ85">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>20366434.3487879</v>
       </c>
       <c r="AR85">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>20354553.314773899</v>
       </c>
       <c r="AS85">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>20262426.424704202</v>
       </c>
       <c r="AT85">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>20115763.334634501</v>
       </c>
       <c r="AU85">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>19914564.044564798</v>
       </c>
       <c r="AV85">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>19658828.5544951</v>
       </c>
-      <c r="BF85" t="s">
-        <v>19</v>
-      </c>
-      <c r="BG85" t="s">
+      <c r="BF85" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="BG85" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="BH85">
+      <c r="BH85" s="23">
         <v>20647252.408292402</v>
       </c>
-      <c r="BI85">
+      <c r="BI85" s="23">
         <v>20719181.027880799</v>
       </c>
-      <c r="BJ85">
+      <c r="BJ85" s="23">
         <v>20702066.534200002</v>
       </c>
-      <c r="BK85">
+      <c r="BK85" s="23">
         <v>20682611.953238599</v>
       </c>
-      <c r="BL85">
+      <c r="BL85" s="23">
         <v>20519461.257975802</v>
       </c>
-      <c r="BM85">
+      <c r="BM85" s="23">
         <v>20380367.912046298</v>
       </c>
-      <c r="BN85">
+      <c r="BN85" s="23">
         <v>20335834.7853879</v>
       </c>
-      <c r="BO85">
+      <c r="BO85" s="23">
         <v>20319957.2534406</v>
       </c>
-      <c r="BP85">
+      <c r="BP85" s="23">
         <v>20216028.303704198</v>
       </c>
-      <c r="BQ85">
+      <c r="BQ85" s="23">
         <v>20071197.203967799</v>
       </c>
-      <c r="BR85">
+      <c r="BR85" s="23">
         <v>19885463.954231501</v>
       </c>
-      <c r="BS85">
+      <c r="BS85" s="23">
         <v>19658828.5544951</v>
       </c>
     </row>
     <row r="86" spans="35:71" x14ac:dyDescent="0.25">
-      <c r="BF86" t="s">
-        <v>20</v>
-      </c>
-      <c r="BG86" t="s">
+      <c r="BF86" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="BG86" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="BH86">
+      <c r="BH86" s="23">
         <v>15774861.2803644</v>
       </c>
-      <c r="BI86">
+      <c r="BI86" s="23">
         <v>15859822.1987023</v>
       </c>
-      <c r="BJ86">
+      <c r="BJ86" s="23">
         <v>15871657.6687405</v>
       </c>
-      <c r="BK86">
+      <c r="BK86" s="23">
         <v>15901653.461367</v>
       </c>
-      <c r="BL86">
+      <c r="BL86" s="23">
         <v>15792930.9028625</v>
       </c>
-      <c r="BM86">
+      <c r="BM86" s="23">
         <v>15690110.418884501</v>
       </c>
-      <c r="BN86">
+      <c r="BN86" s="23">
         <v>15644938.413747501</v>
       </c>
-      <c r="BO86">
+      <c r="BO86" s="23">
         <v>15626801.681165799</v>
       </c>
-      <c r="BP86">
+      <c r="BP86" s="23">
         <v>15503396.298257099</v>
       </c>
-      <c r="BQ86">
+      <c r="BQ86" s="23">
         <v>15325454.7153484</v>
       </c>
-      <c r="BR86">
+      <c r="BR86" s="23">
         <v>15092976.932439599</v>
       </c>
-      <c r="BS86">
+      <c r="BS86" s="23">
         <v>14805962.9495309</v>
       </c>
     </row>
     <row r="87" spans="35:71" x14ac:dyDescent="0.25">
-      <c r="BF87" t="s">
-        <v>20</v>
-      </c>
-      <c r="BG87" t="s">
+      <c r="BF87" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="BG87" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="BH87">
+      <c r="BH87" s="23">
         <v>18160832.902933899</v>
       </c>
-      <c r="BI87">
+      <c r="BI87" s="23">
         <v>18199337.665273499</v>
       </c>
-      <c r="BJ87">
+      <c r="BJ87" s="23">
         <v>18171740.789873399</v>
       </c>
-      <c r="BK87">
+      <c r="BK87" s="23">
         <v>18130184.952673201</v>
       </c>
-      <c r="BL87">
+      <c r="BL87" s="23">
         <v>17980095.042698901</v>
       </c>
-      <c r="BM87">
+      <c r="BM87" s="23">
         <v>17852211.916724499</v>
       </c>
-      <c r="BN87">
+      <c r="BN87" s="23">
         <v>17801127.7898007</v>
       </c>
-      <c r="BO87">
+      <c r="BO87" s="23">
         <v>17778153.895587899</v>
       </c>
-      <c r="BP87">
+      <c r="BP87" s="23">
         <v>17630562.7045242</v>
       </c>
-      <c r="BQ87">
+      <c r="BQ87" s="23">
         <v>17428435.3134606</v>
       </c>
-      <c r="BR87">
+      <c r="BR87" s="23">
         <v>17171771.722396899</v>
       </c>
-      <c r="BS87">
+      <c r="BS87" s="23">
         <v>16860571.931333199</v>
       </c>
     </row>
     <row r="88" spans="35:71" x14ac:dyDescent="0.25">
-      <c r="BF88" t="s">
-        <v>20</v>
-      </c>
-      <c r="BG88" t="s">
+      <c r="BF88" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="BG88" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="BH88">
+      <c r="BH88" s="23">
         <v>20647252.408292402</v>
       </c>
-      <c r="BI88">
+      <c r="BI88" s="23">
         <v>20722674.613880798</v>
       </c>
-      <c r="BJ88">
+      <c r="BJ88" s="23">
         <v>20708674.875266701</v>
       </c>
-      <c r="BK88">
+      <c r="BK88" s="23">
         <v>20694313.311638601</v>
       </c>
-      <c r="BL88">
+      <c r="BL88" s="23">
         <v>20539266.071575802</v>
       </c>
-      <c r="BM88">
+      <c r="BM88" s="23">
         <v>20406425.6155129</v>
       </c>
-      <c r="BN88">
+      <c r="BN88" s="23">
         <v>20366434.3487879</v>
       </c>
-      <c r="BO88">
+      <c r="BO88" s="23">
         <v>20354553.314773899</v>
       </c>
-      <c r="BP88">
+      <c r="BP88" s="23">
         <v>20262426.424704202</v>
       </c>
-      <c r="BQ88">
+      <c r="BQ88" s="23">
         <v>20115763.334634501</v>
       </c>
-      <c r="BR88">
+      <c r="BR88" s="23">
         <v>19914564.044564798</v>
       </c>
-      <c r="BS88">
+      <c r="BS88" s="23">
         <v>19658828.5544951</v>
       </c>
     </row>
     <row r="97" spans="22:42" x14ac:dyDescent="0.25">
       <c r="V97" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="22:42" ht="23.25" x14ac:dyDescent="0.35">
@@ -11969,7 +8810,7 @@
     </row>
     <row r="106" spans="22:42" x14ac:dyDescent="0.25">
       <c r="AJ106" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AK106" s="2"/>
       <c r="AL106" s="2"/>
@@ -11979,13 +8820,8 @@
       <c r="AP106" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="AI2:AV2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:N3"/>
+  <mergeCells count="15">
+    <mergeCell ref="BC2:BP2"/>
     <mergeCell ref="AI76:AV76"/>
     <mergeCell ref="BK45:BX45"/>
     <mergeCell ref="A59:AV59"/>
@@ -11993,6 +8829,13 @@
     <mergeCell ref="H60:N60"/>
     <mergeCell ref="O60:U60"/>
     <mergeCell ref="V60:AB60"/>
+    <mergeCell ref="BF75:BS75"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="AI2:AV2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
